--- a/Tests/UnderReview/Soybean/Observed.xlsx
+++ b/Tests/UnderReview/Soybean/Observed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Soybean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Tests\UnderReview\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1148BF-0AA3-424A-B401-BDE2B7AB794E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487AEFBF-F542-4F0A-AD59-03029F120FBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="338">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>SoilNH4_30cm</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.CoverTotal</t>
   </si>
 </sst>
 </file>
@@ -3995,11 +3998,11 @@
   <dimension ref="A1:CR336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10716" ySplit="576" topLeftCell="Q250" activePane="bottomLeft"/>
+      <pane xSplit="10716" ySplit="576" topLeftCell="O1" activePane="bottomRight"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
       <selection pane="bottomLeft" activeCell="C341" sqref="C341"/>
-      <selection pane="bottomRight" activeCell="Q225" sqref="Q225"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4133,7 +4136,7 @@
         <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="P1" t="s">
         <v>91</v>

--- a/Tests/UnderReview/Soybean/Observed.xlsx
+++ b/Tests/UnderReview/Soybean/Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Tests\UnderReview\Soybean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Tests\UnderReview\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487AEFBF-F542-4F0A-AD59-03029F120FBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8A2A3-539E-4939-B8C7-BECD96E5E424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="15840" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="350">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1051,14 +1053,64 @@
   <si>
     <t>Soybean.Leaf.CoverTotal</t>
   </si>
+  <si>
+    <t>Yaan2014CvNandou12</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2015CvNandou12</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2016CvNandou12</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2014CvTexuan13</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2015CvTexuan13</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2016CvTexuan13</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2014CvJiuyuehuang</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2015CvJiuyuehuang</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaan2016CvJiuyuehuang</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedou19Sow2013</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedou19Sow2014</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedou19Sow2015</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1104,7 +1156,7 @@
       <name val="Mono"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,6 +1166,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1192,6 +1256,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3995,101 +4082,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CR336"/>
+  <dimension ref="A1:CR443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10716" ySplit="576" topLeftCell="O1" activePane="bottomRight"/>
-      <selection activeCell="F1" sqref="F1"/>
+      <pane xSplit="10710" ySplit="570" topLeftCell="A328"/>
+      <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
-      <selection pane="bottomLeft" activeCell="C341" sqref="C341"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
+      <selection pane="bottomRight" activeCell="A337" sqref="A337:AB443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.68359375" customWidth="1"/>
+    <col min="14" max="14" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.3125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.44140625" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.41796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.41796875" customWidth="1"/>
+    <col min="25" max="25" width="15.1015625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" customWidth="1"/>
-    <col min="28" max="29" width="21.88671875" customWidth="1"/>
-    <col min="30" max="30" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.6640625" customWidth="1"/>
-    <col min="33" max="33" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="21.89453125" customWidth="1"/>
+    <col min="30" max="30" width="20.5234375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.68359375" customWidth="1"/>
+    <col min="33" max="33" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.3125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.6640625" customWidth="1"/>
-    <col min="40" max="40" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.68359375" customWidth="1"/>
+    <col min="40" max="40" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.3125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="20.6640625" customWidth="1"/>
-    <col min="47" max="47" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.68359375" style="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="20.68359375" customWidth="1"/>
+    <col min="47" max="47" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.89453125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.1015625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.5234375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.68359375" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="15" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.68359375" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="18" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
@@ -13614,6 +13701,4562 @@
       </c>
       <c r="G336">
         <v>72</v>
+      </c>
+    </row>
+    <row r="337" spans="1:44">
+      <c r="A337" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" s="34">
+        <v>41847</v>
+      </c>
+      <c r="C337" s="35">
+        <v>42</v>
+      </c>
+      <c r="D337" s="33"/>
+      <c r="E337" s="36"/>
+      <c r="F337" s="33"/>
+      <c r="G337" s="36"/>
+      <c r="H337" s="36"/>
+      <c r="I337" s="33"/>
+      <c r="J337" s="33"/>
+      <c r="K337" s="33"/>
+      <c r="L337" s="33"/>
+      <c r="M337" s="33"/>
+      <c r="N337" s="37">
+        <v>1</v>
+      </c>
+      <c r="O337" s="33"/>
+      <c r="P337" s="33"/>
+      <c r="Q337" s="33"/>
+      <c r="R337" s="33"/>
+      <c r="S337" s="33"/>
+      <c r="T337" s="32">
+        <v>32.26</v>
+      </c>
+      <c r="U337" s="32">
+        <v>23.98</v>
+      </c>
+      <c r="V337" s="32"/>
+      <c r="W337" s="33"/>
+      <c r="X337" s="33"/>
+      <c r="Y337" s="33"/>
+      <c r="Z337" s="33"/>
+      <c r="AA337" s="33"/>
+      <c r="AB337" s="33">
+        <v>56.821589205397302</v>
+      </c>
+      <c r="AR337"/>
+    </row>
+    <row r="338" spans="1:44">
+      <c r="A338" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" s="34">
+        <v>41860</v>
+      </c>
+      <c r="C338" s="35">
+        <v>55</v>
+      </c>
+      <c r="D338" s="33"/>
+      <c r="E338" s="36"/>
+      <c r="F338" s="33"/>
+      <c r="G338" s="36"/>
+      <c r="H338" s="36"/>
+      <c r="I338" s="33"/>
+      <c r="J338" s="33"/>
+      <c r="K338" s="33"/>
+      <c r="L338" s="33"/>
+      <c r="M338" s="33"/>
+      <c r="N338" s="37">
+        <v>2.35</v>
+      </c>
+      <c r="O338" s="33"/>
+      <c r="P338" s="33"/>
+      <c r="Q338" s="33"/>
+      <c r="R338" s="33"/>
+      <c r="S338" s="33"/>
+      <c r="T338" s="32">
+        <v>70.14</v>
+      </c>
+      <c r="U338" s="32">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="V338" s="32"/>
+      <c r="W338" s="33"/>
+      <c r="X338" s="33"/>
+      <c r="Y338" s="33"/>
+      <c r="Z338" s="33"/>
+      <c r="AA338" s="33"/>
+      <c r="AB338" s="33">
+        <v>133.3263368315842</v>
+      </c>
+      <c r="AR338"/>
+    </row>
+    <row r="339" spans="1:44">
+      <c r="A339" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339" s="34">
+        <v>41863</v>
+      </c>
+      <c r="C339" s="35">
+        <v>58</v>
+      </c>
+      <c r="D339" s="33"/>
+      <c r="E339" s="36">
+        <v>4</v>
+      </c>
+      <c r="F339" s="33"/>
+      <c r="G339" s="36"/>
+      <c r="H339" s="36"/>
+      <c r="I339" s="33"/>
+      <c r="J339" s="33"/>
+      <c r="K339" s="33"/>
+      <c r="L339" s="33"/>
+      <c r="M339" s="33"/>
+      <c r="N339" s="37"/>
+      <c r="O339" s="33"/>
+      <c r="P339" s="33"/>
+      <c r="Q339" s="33"/>
+      <c r="R339" s="33"/>
+      <c r="S339" s="33"/>
+      <c r="T339" s="32"/>
+      <c r="U339" s="32"/>
+      <c r="V339" s="32"/>
+      <c r="W339" s="33"/>
+      <c r="X339" s="33"/>
+      <c r="Y339" s="33"/>
+      <c r="Z339" s="33"/>
+      <c r="AA339" s="33"/>
+      <c r="AB339" s="33"/>
+    </row>
+    <row r="340" spans="1:44">
+      <c r="A340" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B340" s="34">
+        <v>41875</v>
+      </c>
+      <c r="C340" s="35">
+        <v>70</v>
+      </c>
+      <c r="D340" s="33"/>
+      <c r="E340" s="36"/>
+      <c r="F340" s="33"/>
+      <c r="G340" s="36"/>
+      <c r="H340" s="36"/>
+      <c r="I340" s="33"/>
+      <c r="J340" s="33"/>
+      <c r="K340" s="33"/>
+      <c r="L340" s="33"/>
+      <c r="M340" s="33"/>
+      <c r="N340" s="37">
+        <v>3.08</v>
+      </c>
+      <c r="O340" s="33"/>
+      <c r="P340" s="33"/>
+      <c r="Q340" s="33"/>
+      <c r="R340" s="33"/>
+      <c r="S340" s="33"/>
+      <c r="T340" s="32">
+        <v>89.5</v>
+      </c>
+      <c r="U340" s="32">
+        <v>101.27</v>
+      </c>
+      <c r="V340" s="32"/>
+      <c r="W340" s="33"/>
+      <c r="X340" s="33"/>
+      <c r="Y340" s="33"/>
+      <c r="Z340" s="33"/>
+      <c r="AA340" s="33"/>
+      <c r="AB340" s="33">
+        <v>261.41029485257366</v>
+      </c>
+    </row>
+    <row r="341" spans="1:44">
+      <c r="A341" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B341" s="34">
+        <v>41888</v>
+      </c>
+      <c r="C341" s="35">
+        <v>83</v>
+      </c>
+      <c r="D341" s="33"/>
+      <c r="E341" s="36"/>
+      <c r="F341" s="33"/>
+      <c r="G341" s="36"/>
+      <c r="H341" s="36"/>
+      <c r="I341" s="33"/>
+      <c r="J341" s="33"/>
+      <c r="K341" s="33"/>
+      <c r="L341" s="33"/>
+      <c r="M341" s="33"/>
+      <c r="N341" s="37">
+        <v>3.74</v>
+      </c>
+      <c r="O341" s="33"/>
+      <c r="P341" s="33"/>
+      <c r="Q341" s="33"/>
+      <c r="R341" s="33"/>
+      <c r="S341" s="33"/>
+      <c r="T341" s="32">
+        <v>127.87</v>
+      </c>
+      <c r="U341" s="32">
+        <v>196.36</v>
+      </c>
+      <c r="V341" s="32">
+        <v>19.78</v>
+      </c>
+      <c r="W341" s="33"/>
+      <c r="X341" s="33"/>
+      <c r="Y341" s="33"/>
+      <c r="Z341" s="33"/>
+      <c r="AA341" s="33"/>
+      <c r="AB341" s="33">
+        <v>361.36031984007991</v>
+      </c>
+    </row>
+    <row r="342" spans="1:44">
+      <c r="A342" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B342" s="34">
+        <v>41890</v>
+      </c>
+      <c r="C342" s="35">
+        <v>85</v>
+      </c>
+      <c r="D342" s="33"/>
+      <c r="E342" s="36"/>
+      <c r="F342" s="33"/>
+      <c r="G342" s="36"/>
+      <c r="H342" s="36"/>
+      <c r="I342" s="33"/>
+      <c r="J342" s="33"/>
+      <c r="K342" s="33"/>
+      <c r="L342" s="33"/>
+      <c r="M342" s="33"/>
+      <c r="N342" s="37"/>
+      <c r="O342" s="33"/>
+      <c r="P342" s="33"/>
+      <c r="Q342" s="33"/>
+      <c r="R342" s="33"/>
+      <c r="S342" s="33"/>
+      <c r="T342" s="32"/>
+      <c r="U342" s="32"/>
+      <c r="V342" s="32"/>
+      <c r="W342" s="33"/>
+      <c r="X342" s="33"/>
+      <c r="Y342" s="33"/>
+      <c r="Z342" s="33"/>
+      <c r="AA342" s="33"/>
+      <c r="AB342" s="33"/>
+    </row>
+    <row r="343" spans="1:44">
+      <c r="A343" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B343" s="34">
+        <v>41904</v>
+      </c>
+      <c r="C343" s="35">
+        <v>99</v>
+      </c>
+      <c r="D343" s="33"/>
+      <c r="E343" s="36"/>
+      <c r="F343" s="33"/>
+      <c r="G343" s="36"/>
+      <c r="H343" s="36"/>
+      <c r="I343" s="33"/>
+      <c r="J343" s="33"/>
+      <c r="K343" s="33"/>
+      <c r="L343" s="33"/>
+      <c r="M343" s="33"/>
+      <c r="N343" s="37">
+        <v>2.39</v>
+      </c>
+      <c r="O343" s="33"/>
+      <c r="P343" s="33"/>
+      <c r="Q343" s="33"/>
+      <c r="R343" s="33"/>
+      <c r="S343" s="33"/>
+      <c r="T343" s="32">
+        <v>114.89</v>
+      </c>
+      <c r="U343" s="32">
+        <v>174.84</v>
+      </c>
+      <c r="V343" s="32">
+        <v>140.57</v>
+      </c>
+      <c r="W343" s="33"/>
+      <c r="X343" s="33"/>
+      <c r="Y343" s="33"/>
+      <c r="Z343" s="33"/>
+      <c r="AA343" s="33"/>
+      <c r="AB343" s="33">
+        <v>407.12843578210897</v>
+      </c>
+    </row>
+    <row r="344" spans="1:44">
+      <c r="A344" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B344" s="34">
+        <v>41919</v>
+      </c>
+      <c r="C344" s="35">
+        <v>114</v>
+      </c>
+      <c r="D344" s="33"/>
+      <c r="E344" s="36"/>
+      <c r="F344" s="33"/>
+      <c r="G344" s="36"/>
+      <c r="H344" s="36"/>
+      <c r="I344" s="33"/>
+      <c r="J344" s="33"/>
+      <c r="K344" s="33"/>
+      <c r="L344" s="33"/>
+      <c r="M344" s="33"/>
+      <c r="N344" s="37">
+        <v>1.55</v>
+      </c>
+      <c r="O344" s="33"/>
+      <c r="P344" s="33"/>
+      <c r="Q344" s="33"/>
+      <c r="R344" s="33"/>
+      <c r="S344" s="33"/>
+      <c r="T344" s="32">
+        <v>96.98</v>
+      </c>
+      <c r="U344" s="32">
+        <v>128.38999999999999</v>
+      </c>
+      <c r="V344" s="32">
+        <v>233.62</v>
+      </c>
+      <c r="W344" s="33"/>
+      <c r="X344" s="33"/>
+      <c r="Y344" s="33"/>
+      <c r="Z344" s="33"/>
+      <c r="AA344" s="33"/>
+      <c r="AB344" s="33">
+        <v>451.49625187406298</v>
+      </c>
+    </row>
+    <row r="345" spans="1:44">
+      <c r="A345" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B345" s="34">
+        <v>41934</v>
+      </c>
+      <c r="C345" s="35">
+        <v>129</v>
+      </c>
+      <c r="D345" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E345" s="36">
+        <v>10</v>
+      </c>
+      <c r="F345" s="33"/>
+      <c r="G345" s="36">
+        <v>58</v>
+      </c>
+      <c r="H345" s="36">
+        <v>129</v>
+      </c>
+      <c r="I345" s="33"/>
+      <c r="J345" s="33"/>
+      <c r="K345" s="33"/>
+      <c r="L345" s="33"/>
+      <c r="M345" s="33"/>
+      <c r="N345" s="37"/>
+      <c r="O345" s="33"/>
+      <c r="P345" s="33"/>
+      <c r="Q345" s="33"/>
+      <c r="R345" s="33"/>
+      <c r="S345" s="33"/>
+      <c r="T345" s="32"/>
+      <c r="U345" s="32"/>
+      <c r="V345" s="32"/>
+      <c r="W345" s="33"/>
+      <c r="X345" s="33"/>
+      <c r="Y345" s="33"/>
+      <c r="Z345" s="33">
+        <v>157.32133933033484</v>
+      </c>
+      <c r="AA345" s="33"/>
+      <c r="AB345" s="33"/>
+    </row>
+    <row r="346" spans="1:44">
+      <c r="A346" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B346" s="34">
+        <v>42218</v>
+      </c>
+      <c r="C346" s="35">
+        <v>45</v>
+      </c>
+      <c r="D346" s="33"/>
+      <c r="E346" s="36"/>
+      <c r="F346" s="33"/>
+      <c r="G346" s="36"/>
+      <c r="H346" s="36"/>
+      <c r="I346" s="33"/>
+      <c r="J346" s="33"/>
+      <c r="K346" s="33"/>
+      <c r="L346" s="33"/>
+      <c r="M346" s="33"/>
+      <c r="N346" s="37">
+        <v>2.02</v>
+      </c>
+      <c r="O346" s="33"/>
+      <c r="P346" s="33"/>
+      <c r="Q346" s="33"/>
+      <c r="R346" s="33"/>
+      <c r="S346" s="33"/>
+      <c r="T346" s="32">
+        <v>26.42</v>
+      </c>
+      <c r="U346" s="32">
+        <v>19.5</v>
+      </c>
+      <c r="V346" s="32"/>
+      <c r="W346" s="33"/>
+      <c r="X346" s="33"/>
+      <c r="Y346" s="33"/>
+      <c r="Z346" s="33"/>
+      <c r="AA346" s="33"/>
+      <c r="AB346" s="33">
+        <v>109.14542728635682</v>
+      </c>
+    </row>
+    <row r="347" spans="1:44">
+      <c r="A347" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B347" s="34">
+        <v>42228</v>
+      </c>
+      <c r="C347" s="35">
+        <v>55</v>
+      </c>
+      <c r="D347" s="33"/>
+      <c r="E347" s="36">
+        <v>4</v>
+      </c>
+      <c r="F347" s="33"/>
+      <c r="G347" s="36"/>
+      <c r="H347" s="36"/>
+      <c r="I347" s="33"/>
+      <c r="J347" s="33"/>
+      <c r="K347" s="33"/>
+      <c r="L347" s="33"/>
+      <c r="M347" s="33"/>
+      <c r="N347" s="37"/>
+      <c r="O347" s="33"/>
+      <c r="P347" s="33"/>
+      <c r="Q347" s="33"/>
+      <c r="R347" s="33"/>
+      <c r="S347" s="33"/>
+      <c r="T347" s="32"/>
+      <c r="U347" s="32"/>
+      <c r="V347" s="32"/>
+      <c r="W347" s="33"/>
+      <c r="X347" s="33"/>
+      <c r="Y347" s="33"/>
+      <c r="Z347" s="33"/>
+      <c r="AA347" s="33"/>
+      <c r="AB347" s="33"/>
+    </row>
+    <row r="348" spans="1:44">
+      <c r="A348" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B348" s="34">
+        <v>42232</v>
+      </c>
+      <c r="C348" s="35">
+        <v>59</v>
+      </c>
+      <c r="D348" s="33"/>
+      <c r="E348" s="36"/>
+      <c r="F348" s="33"/>
+      <c r="G348" s="36"/>
+      <c r="H348" s="36"/>
+      <c r="I348" s="33"/>
+      <c r="J348" s="33"/>
+      <c r="K348" s="33"/>
+      <c r="L348" s="33"/>
+      <c r="M348" s="33"/>
+      <c r="N348" s="37">
+        <v>3.65</v>
+      </c>
+      <c r="O348" s="33"/>
+      <c r="P348" s="33"/>
+      <c r="Q348" s="33"/>
+      <c r="R348" s="33"/>
+      <c r="S348" s="33"/>
+      <c r="T348" s="32">
+        <v>69.87</v>
+      </c>
+      <c r="U348" s="32">
+        <v>58.47</v>
+      </c>
+      <c r="V348" s="32"/>
+      <c r="W348" s="33"/>
+      <c r="X348" s="33"/>
+      <c r="Y348" s="33"/>
+      <c r="Z348" s="33"/>
+      <c r="AA348" s="33"/>
+      <c r="AB348" s="33">
+        <v>199.0004997501249</v>
+      </c>
+    </row>
+    <row r="349" spans="1:44">
+      <c r="A349" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B349" s="34">
+        <v>42246</v>
+      </c>
+      <c r="C349" s="35">
+        <v>73</v>
+      </c>
+      <c r="D349" s="33"/>
+      <c r="E349" s="36"/>
+      <c r="F349" s="33"/>
+      <c r="G349" s="36"/>
+      <c r="H349" s="36"/>
+      <c r="I349" s="33"/>
+      <c r="J349" s="33"/>
+      <c r="K349" s="33"/>
+      <c r="L349" s="33"/>
+      <c r="M349" s="33"/>
+      <c r="N349" s="37">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O349" s="33"/>
+      <c r="P349" s="33"/>
+      <c r="Q349" s="33"/>
+      <c r="R349" s="33"/>
+      <c r="S349" s="33"/>
+      <c r="T349" s="32">
+        <v>66.2</v>
+      </c>
+      <c r="U349" s="32">
+        <v>72.33</v>
+      </c>
+      <c r="V349" s="32"/>
+      <c r="W349" s="33"/>
+      <c r="X349" s="33"/>
+      <c r="Y349" s="33"/>
+      <c r="Z349" s="33"/>
+      <c r="AA349" s="33"/>
+      <c r="AB349" s="33">
+        <v>356.12193903048478</v>
+      </c>
+    </row>
+    <row r="350" spans="1:44">
+      <c r="A350" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B350" s="34">
+        <v>42255</v>
+      </c>
+      <c r="C350" s="35">
+        <v>82</v>
+      </c>
+      <c r="D350" s="33"/>
+      <c r="E350" s="36"/>
+      <c r="F350" s="33"/>
+      <c r="G350" s="36"/>
+      <c r="H350" s="36"/>
+      <c r="I350" s="33"/>
+      <c r="J350" s="33"/>
+      <c r="K350" s="33"/>
+      <c r="L350" s="33"/>
+      <c r="M350" s="33"/>
+      <c r="N350" s="37"/>
+      <c r="O350" s="33"/>
+      <c r="P350" s="33"/>
+      <c r="Q350" s="33"/>
+      <c r="R350" s="33"/>
+      <c r="S350" s="33"/>
+      <c r="T350" s="32"/>
+      <c r="U350" s="32"/>
+      <c r="V350" s="32"/>
+      <c r="W350" s="33"/>
+      <c r="X350" s="33"/>
+      <c r="Y350" s="33"/>
+      <c r="Z350" s="33"/>
+      <c r="AA350" s="33"/>
+      <c r="AB350" s="33"/>
+    </row>
+    <row r="351" spans="1:44">
+      <c r="A351" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B351" s="34">
+        <v>42260</v>
+      </c>
+      <c r="C351" s="35">
+        <v>87</v>
+      </c>
+      <c r="D351" s="33"/>
+      <c r="E351" s="36"/>
+      <c r="F351" s="33"/>
+      <c r="G351" s="36"/>
+      <c r="H351" s="36"/>
+      <c r="I351" s="33"/>
+      <c r="J351" s="33"/>
+      <c r="K351" s="33"/>
+      <c r="L351" s="33"/>
+      <c r="M351" s="33"/>
+      <c r="N351" s="37">
+        <v>3.67</v>
+      </c>
+      <c r="O351" s="33"/>
+      <c r="P351" s="33"/>
+      <c r="Q351" s="33"/>
+      <c r="R351" s="33"/>
+      <c r="S351" s="33"/>
+      <c r="T351" s="32">
+        <v>88.8</v>
+      </c>
+      <c r="U351" s="32">
+        <v>113.43</v>
+      </c>
+      <c r="V351" s="32">
+        <v>37.07</v>
+      </c>
+      <c r="W351" s="33"/>
+      <c r="X351" s="33"/>
+      <c r="Y351" s="33"/>
+      <c r="Z351" s="33"/>
+      <c r="AA351" s="33"/>
+      <c r="AB351" s="33">
+        <v>444.57771114442784</v>
+      </c>
+    </row>
+    <row r="352" spans="1:44">
+      <c r="A352" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B352" s="34">
+        <v>42274</v>
+      </c>
+      <c r="C352" s="35">
+        <v>101</v>
+      </c>
+      <c r="D352" s="33"/>
+      <c r="E352" s="36"/>
+      <c r="F352" s="33"/>
+      <c r="G352" s="36"/>
+      <c r="H352" s="36"/>
+      <c r="I352" s="33"/>
+      <c r="J352" s="33"/>
+      <c r="K352" s="33"/>
+      <c r="L352" s="33"/>
+      <c r="M352" s="33"/>
+      <c r="N352" s="37">
+        <v>2.72</v>
+      </c>
+      <c r="O352" s="33"/>
+      <c r="P352" s="33"/>
+      <c r="Q352" s="33"/>
+      <c r="R352" s="33"/>
+      <c r="S352" s="33"/>
+      <c r="T352" s="32">
+        <v>98.87</v>
+      </c>
+      <c r="U352" s="32">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="V352" s="32">
+        <v>272.7</v>
+      </c>
+      <c r="W352" s="33"/>
+      <c r="X352" s="33"/>
+      <c r="Y352" s="33"/>
+      <c r="Z352" s="33"/>
+      <c r="AA352" s="33"/>
+      <c r="AB352" s="33">
+        <v>470.97351324337831</v>
+      </c>
+    </row>
+    <row r="353" spans="1:28">
+      <c r="A353" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B353" s="34">
+        <v>42288</v>
+      </c>
+      <c r="C353" s="35">
+        <v>115</v>
+      </c>
+      <c r="D353" s="33"/>
+      <c r="E353" s="36"/>
+      <c r="F353" s="33"/>
+      <c r="G353" s="36"/>
+      <c r="H353" s="36"/>
+      <c r="I353" s="33"/>
+      <c r="J353" s="33"/>
+      <c r="K353" s="33"/>
+      <c r="L353" s="33"/>
+      <c r="M353" s="33"/>
+      <c r="N353" s="37">
+        <v>1.04</v>
+      </c>
+      <c r="O353" s="33"/>
+      <c r="P353" s="33"/>
+      <c r="Q353" s="33"/>
+      <c r="R353" s="33"/>
+      <c r="S353" s="33"/>
+      <c r="T353" s="32">
+        <v>71</v>
+      </c>
+      <c r="U353" s="32">
+        <v>139.87</v>
+      </c>
+      <c r="V353" s="32">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="W353" s="33"/>
+      <c r="X353" s="33"/>
+      <c r="Y353" s="33"/>
+      <c r="Z353" s="33"/>
+      <c r="AA353" s="33"/>
+      <c r="AB353" s="33">
+        <v>498.95052473763121</v>
+      </c>
+    </row>
+    <row r="354" spans="1:28">
+      <c r="A354" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B354" s="34">
+        <v>42299</v>
+      </c>
+      <c r="C354" s="35">
+        <v>126</v>
+      </c>
+      <c r="D354" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E354" s="36">
+        <v>10</v>
+      </c>
+      <c r="F354" s="33"/>
+      <c r="G354" s="36">
+        <v>55</v>
+      </c>
+      <c r="H354" s="36">
+        <v>126</v>
+      </c>
+      <c r="I354" s="33"/>
+      <c r="J354" s="33"/>
+      <c r="K354" s="33"/>
+      <c r="L354" s="33"/>
+      <c r="M354" s="33"/>
+      <c r="N354" s="37"/>
+      <c r="O354" s="33"/>
+      <c r="P354" s="33"/>
+      <c r="Q354" s="33"/>
+      <c r="R354" s="33"/>
+      <c r="S354" s="33"/>
+      <c r="T354" s="32"/>
+      <c r="U354" s="32"/>
+      <c r="V354" s="32"/>
+      <c r="W354" s="33"/>
+      <c r="X354" s="33"/>
+      <c r="Y354" s="33"/>
+      <c r="Z354" s="33">
+        <v>170.43978010994505</v>
+      </c>
+      <c r="AA354" s="33"/>
+      <c r="AB354" s="33"/>
+    </row>
+    <row r="355" spans="1:28">
+      <c r="A355" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B355" s="34">
+        <v>42571</v>
+      </c>
+      <c r="C355" s="35">
+        <v>32</v>
+      </c>
+      <c r="D355" s="33"/>
+      <c r="E355" s="36"/>
+      <c r="F355" s="33"/>
+      <c r="G355" s="36"/>
+      <c r="H355" s="36"/>
+      <c r="I355" s="33"/>
+      <c r="J355" s="33"/>
+      <c r="K355" s="33"/>
+      <c r="L355" s="33"/>
+      <c r="M355" s="33"/>
+      <c r="N355" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="O355" s="33"/>
+      <c r="P355" s="33"/>
+      <c r="Q355" s="33"/>
+      <c r="R355" s="33"/>
+      <c r="S355" s="33"/>
+      <c r="T355" s="32">
+        <v>7.1</v>
+      </c>
+      <c r="U355" s="32">
+        <v>7.93</v>
+      </c>
+      <c r="V355" s="32"/>
+      <c r="W355" s="33"/>
+      <c r="X355" s="33"/>
+      <c r="Y355" s="33"/>
+      <c r="Z355" s="33"/>
+      <c r="AA355" s="33"/>
+      <c r="AB355" s="33">
+        <v>14.990504747626186</v>
+      </c>
+    </row>
+    <row r="356" spans="1:28">
+      <c r="A356" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B356" s="34">
+        <v>42584</v>
+      </c>
+      <c r="C356" s="35">
+        <v>45</v>
+      </c>
+      <c r="D356" s="33"/>
+      <c r="E356" s="36"/>
+      <c r="F356" s="33"/>
+      <c r="G356" s="36"/>
+      <c r="H356" s="36"/>
+      <c r="I356" s="33"/>
+      <c r="J356" s="33"/>
+      <c r="K356" s="33"/>
+      <c r="L356" s="33"/>
+      <c r="M356" s="33"/>
+      <c r="N356" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="O356" s="33"/>
+      <c r="P356" s="33"/>
+      <c r="Q356" s="33"/>
+      <c r="R356" s="33"/>
+      <c r="S356" s="33"/>
+      <c r="T356" s="32">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="U356" s="32">
+        <v>26.23</v>
+      </c>
+      <c r="V356" s="32"/>
+      <c r="W356" s="33"/>
+      <c r="X356" s="33"/>
+      <c r="Y356" s="33"/>
+      <c r="Z356" s="33"/>
+      <c r="AA356" s="33"/>
+      <c r="AB356" s="33">
+        <v>59.687156421789105</v>
+      </c>
+    </row>
+    <row r="357" spans="1:28">
+      <c r="A357" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B357" s="34">
+        <v>42591</v>
+      </c>
+      <c r="C357" s="35">
+        <v>52</v>
+      </c>
+      <c r="D357" s="33"/>
+      <c r="E357" s="36"/>
+      <c r="F357" s="33"/>
+      <c r="G357" s="36"/>
+      <c r="H357" s="36"/>
+      <c r="I357" s="33"/>
+      <c r="J357" s="33"/>
+      <c r="K357" s="33"/>
+      <c r="L357" s="33"/>
+      <c r="M357" s="33"/>
+      <c r="N357" s="37">
+        <v>1.93</v>
+      </c>
+      <c r="O357" s="33"/>
+      <c r="P357" s="33"/>
+      <c r="Q357" s="33"/>
+      <c r="R357" s="33"/>
+      <c r="S357" s="33"/>
+      <c r="T357" s="32">
+        <v>85.97</v>
+      </c>
+      <c r="U357" s="32">
+        <v>55.04</v>
+      </c>
+      <c r="V357" s="32"/>
+      <c r="W357" s="33"/>
+      <c r="X357" s="33"/>
+      <c r="Y357" s="33"/>
+      <c r="Z357" s="33"/>
+      <c r="AA357" s="33"/>
+      <c r="AB357" s="33">
+        <v>139.84007996001998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:28">
+      <c r="A358" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B358" s="34">
+        <v>42594</v>
+      </c>
+      <c r="C358" s="35">
+        <v>55</v>
+      </c>
+      <c r="D358" s="33"/>
+      <c r="E358" s="36">
+        <v>4</v>
+      </c>
+      <c r="F358" s="33"/>
+      <c r="G358" s="36"/>
+      <c r="H358" s="36"/>
+      <c r="I358" s="33"/>
+      <c r="J358" s="33"/>
+      <c r="K358" s="33"/>
+      <c r="L358" s="33"/>
+      <c r="M358" s="33"/>
+      <c r="N358" s="37"/>
+      <c r="O358" s="33"/>
+      <c r="P358" s="33"/>
+      <c r="Q358" s="33"/>
+      <c r="R358" s="33"/>
+      <c r="S358" s="33"/>
+      <c r="T358" s="32"/>
+      <c r="U358" s="32"/>
+      <c r="V358" s="32"/>
+      <c r="W358" s="33"/>
+      <c r="X358" s="33"/>
+      <c r="Y358" s="33"/>
+      <c r="Z358" s="33"/>
+      <c r="AA358" s="33"/>
+      <c r="AB358" s="33"/>
+    </row>
+    <row r="359" spans="1:28">
+      <c r="A359" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B359" s="34">
+        <v>42598</v>
+      </c>
+      <c r="C359" s="35">
+        <v>59</v>
+      </c>
+      <c r="D359" s="33"/>
+      <c r="E359" s="36"/>
+      <c r="F359" s="33"/>
+      <c r="G359" s="36"/>
+      <c r="H359" s="36"/>
+      <c r="I359" s="33"/>
+      <c r="J359" s="33"/>
+      <c r="K359" s="33"/>
+      <c r="L359" s="33"/>
+      <c r="M359" s="33"/>
+      <c r="N359" s="37">
+        <v>3.09</v>
+      </c>
+      <c r="O359" s="33"/>
+      <c r="P359" s="33"/>
+      <c r="Q359" s="33"/>
+      <c r="R359" s="33"/>
+      <c r="S359" s="33"/>
+      <c r="T359" s="32">
+        <v>106.53</v>
+      </c>
+      <c r="U359" s="32">
+        <v>88.23</v>
+      </c>
+      <c r="V359" s="32"/>
+      <c r="W359" s="33"/>
+      <c r="X359" s="33"/>
+      <c r="Y359" s="33"/>
+      <c r="Z359" s="33"/>
+      <c r="AA359" s="33"/>
+      <c r="AB359" s="33">
+        <v>191.67416291854073</v>
+      </c>
+    </row>
+    <row r="360" spans="1:28">
+      <c r="A360" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B360" s="34">
+        <v>42605</v>
+      </c>
+      <c r="C360" s="35">
+        <v>66</v>
+      </c>
+      <c r="D360" s="33"/>
+      <c r="E360" s="36"/>
+      <c r="F360" s="33"/>
+      <c r="G360" s="36"/>
+      <c r="H360" s="36"/>
+      <c r="I360" s="33"/>
+      <c r="J360" s="33"/>
+      <c r="K360" s="33"/>
+      <c r="L360" s="33"/>
+      <c r="M360" s="33"/>
+      <c r="N360" s="37">
+        <v>3.94</v>
+      </c>
+      <c r="O360" s="33"/>
+      <c r="P360" s="33"/>
+      <c r="Q360" s="33"/>
+      <c r="R360" s="33"/>
+      <c r="S360" s="33"/>
+      <c r="T360" s="32">
+        <v>172.33</v>
+      </c>
+      <c r="U360" s="32">
+        <v>176.77</v>
+      </c>
+      <c r="V360" s="32"/>
+      <c r="W360" s="33"/>
+      <c r="X360" s="33"/>
+      <c r="Y360" s="33"/>
+      <c r="Z360" s="33"/>
+      <c r="AA360" s="33"/>
+      <c r="AB360" s="33">
+        <v>316.53573213393304</v>
+      </c>
+    </row>
+    <row r="361" spans="1:28">
+      <c r="A361" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B361" s="34">
+        <v>42612</v>
+      </c>
+      <c r="C361" s="35">
+        <v>73</v>
+      </c>
+      <c r="D361" s="33"/>
+      <c r="E361" s="36"/>
+      <c r="F361" s="33"/>
+      <c r="G361" s="36"/>
+      <c r="H361" s="36"/>
+      <c r="I361" s="33"/>
+      <c r="J361" s="33"/>
+      <c r="K361" s="33"/>
+      <c r="L361" s="33"/>
+      <c r="M361" s="33"/>
+      <c r="N361" s="37">
+        <v>4.28</v>
+      </c>
+      <c r="O361" s="33"/>
+      <c r="P361" s="33"/>
+      <c r="Q361" s="33"/>
+      <c r="R361" s="33"/>
+      <c r="S361" s="33"/>
+      <c r="T361" s="32">
+        <v>171.67</v>
+      </c>
+      <c r="U361" s="32">
+        <v>169.77</v>
+      </c>
+      <c r="V361" s="32">
+        <v>56.87</v>
+      </c>
+      <c r="W361" s="33"/>
+      <c r="X361" s="33"/>
+      <c r="Y361" s="33"/>
+      <c r="Z361" s="33"/>
+      <c r="AA361" s="33"/>
+      <c r="AB361" s="33">
+        <v>365.21639180409795</v>
+      </c>
+    </row>
+    <row r="362" spans="1:28">
+      <c r="A362" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B362" s="34">
+        <v>42621</v>
+      </c>
+      <c r="C362" s="35">
+        <v>82</v>
+      </c>
+      <c r="D362" s="33"/>
+      <c r="E362" s="36"/>
+      <c r="F362" s="33"/>
+      <c r="G362" s="36"/>
+      <c r="H362" s="36"/>
+      <c r="I362" s="33"/>
+      <c r="J362" s="33"/>
+      <c r="K362" s="33"/>
+      <c r="L362" s="33"/>
+      <c r="M362" s="33"/>
+      <c r="N362" s="37"/>
+      <c r="O362" s="33"/>
+      <c r="P362" s="33"/>
+      <c r="Q362" s="33"/>
+      <c r="R362" s="33"/>
+      <c r="S362" s="33"/>
+      <c r="T362" s="32"/>
+      <c r="U362" s="32"/>
+      <c r="V362" s="32"/>
+      <c r="W362" s="33"/>
+      <c r="X362" s="33"/>
+      <c r="Y362" s="33"/>
+      <c r="Z362" s="33"/>
+      <c r="AA362" s="33"/>
+      <c r="AB362" s="33"/>
+    </row>
+    <row r="363" spans="1:28">
+      <c r="A363" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B363" s="34">
+        <v>42628</v>
+      </c>
+      <c r="C363" s="35">
+        <v>89</v>
+      </c>
+      <c r="D363" s="33"/>
+      <c r="E363" s="36"/>
+      <c r="F363" s="33"/>
+      <c r="G363" s="36"/>
+      <c r="H363" s="36"/>
+      <c r="I363" s="33"/>
+      <c r="J363" s="33"/>
+      <c r="K363" s="33"/>
+      <c r="L363" s="33"/>
+      <c r="M363" s="33"/>
+      <c r="N363" s="37">
+        <v>3.79</v>
+      </c>
+      <c r="O363" s="33"/>
+      <c r="P363" s="33"/>
+      <c r="Q363" s="33"/>
+      <c r="R363" s="33"/>
+      <c r="S363" s="33"/>
+      <c r="T363" s="32">
+        <v>123.9</v>
+      </c>
+      <c r="U363" s="32">
+        <v>143.57</v>
+      </c>
+      <c r="V363" s="32">
+        <v>191.13</v>
+      </c>
+      <c r="W363" s="33"/>
+      <c r="X363" s="33"/>
+      <c r="Y363" s="33"/>
+      <c r="Z363" s="33"/>
+      <c r="AA363" s="33"/>
+      <c r="AB363" s="33">
+        <v>450.42578710644682</v>
+      </c>
+    </row>
+    <row r="364" spans="1:28">
+      <c r="A364" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B364" s="34">
+        <v>42643</v>
+      </c>
+      <c r="C364" s="35">
+        <v>104</v>
+      </c>
+      <c r="D364" s="33"/>
+      <c r="E364" s="36"/>
+      <c r="F364" s="33"/>
+      <c r="G364" s="36"/>
+      <c r="H364" s="36"/>
+      <c r="I364" s="33"/>
+      <c r="J364" s="33"/>
+      <c r="K364" s="33"/>
+      <c r="L364" s="33"/>
+      <c r="M364" s="33"/>
+      <c r="N364" s="37">
+        <v>2.27</v>
+      </c>
+      <c r="O364" s="33"/>
+      <c r="P364" s="33"/>
+      <c r="Q364" s="33"/>
+      <c r="R364" s="33"/>
+      <c r="S364" s="33"/>
+      <c r="T364" s="32">
+        <v>92.5</v>
+      </c>
+      <c r="U364" s="32">
+        <v>112.03</v>
+      </c>
+      <c r="V364" s="32">
+        <v>267.99</v>
+      </c>
+      <c r="W364" s="33"/>
+      <c r="X364" s="33"/>
+      <c r="Y364" s="33"/>
+      <c r="Z364" s="33"/>
+      <c r="AA364" s="33"/>
+      <c r="AB364" s="33">
+        <v>476.56171914042977</v>
+      </c>
+    </row>
+    <row r="365" spans="1:28">
+      <c r="A365" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B365" s="34">
+        <v>42665</v>
+      </c>
+      <c r="C365" s="35">
+        <v>126</v>
+      </c>
+      <c r="D365" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E365" s="36">
+        <v>10</v>
+      </c>
+      <c r="F365" s="33"/>
+      <c r="G365" s="36">
+        <v>55</v>
+      </c>
+      <c r="H365" s="36">
+        <v>126</v>
+      </c>
+      <c r="I365" s="33"/>
+      <c r="J365" s="33"/>
+      <c r="K365" s="33"/>
+      <c r="L365" s="33"/>
+      <c r="M365" s="33"/>
+      <c r="N365" s="37"/>
+      <c r="O365" s="33"/>
+      <c r="P365" s="33"/>
+      <c r="Q365" s="33"/>
+      <c r="R365" s="33"/>
+      <c r="S365" s="33"/>
+      <c r="T365" s="32"/>
+      <c r="U365" s="32"/>
+      <c r="V365" s="32"/>
+      <c r="W365" s="33"/>
+      <c r="X365" s="33"/>
+      <c r="Y365" s="33"/>
+      <c r="Z365" s="33">
+        <v>180.40079960019992</v>
+      </c>
+      <c r="AA365" s="33"/>
+      <c r="AB365" s="33"/>
+    </row>
+    <row r="366" spans="1:28">
+      <c r="A366" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B366" s="34">
+        <v>41847</v>
+      </c>
+      <c r="C366" s="35">
+        <v>42</v>
+      </c>
+      <c r="D366" s="33"/>
+      <c r="E366" s="36"/>
+      <c r="F366" s="33"/>
+      <c r="G366" s="36"/>
+      <c r="H366" s="36"/>
+      <c r="I366" s="33"/>
+      <c r="J366" s="33"/>
+      <c r="K366" s="33"/>
+      <c r="L366" s="33"/>
+      <c r="M366" s="33"/>
+      <c r="N366" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="O366" s="33"/>
+      <c r="P366" s="33"/>
+      <c r="Q366" s="33"/>
+      <c r="R366" s="33"/>
+      <c r="S366" s="33"/>
+      <c r="T366" s="32">
+        <v>29.24</v>
+      </c>
+      <c r="U366" s="32">
+        <v>29.35</v>
+      </c>
+      <c r="V366" s="32"/>
+      <c r="W366" s="33"/>
+      <c r="X366" s="33"/>
+      <c r="Y366" s="33"/>
+      <c r="Z366" s="33"/>
+      <c r="AA366" s="33"/>
+      <c r="AB366" s="33">
+        <v>61.138430784607699</v>
+      </c>
+    </row>
+    <row r="367" spans="1:28">
+      <c r="A367" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B367" s="34">
+        <v>41860</v>
+      </c>
+      <c r="C367" s="35">
+        <v>55</v>
+      </c>
+      <c r="D367" s="33"/>
+      <c r="E367" s="36"/>
+      <c r="F367" s="33"/>
+      <c r="G367" s="36"/>
+      <c r="H367" s="36"/>
+      <c r="I367" s="33"/>
+      <c r="J367" s="33"/>
+      <c r="K367" s="33"/>
+      <c r="L367" s="33"/>
+      <c r="M367" s="33"/>
+      <c r="N367" s="37">
+        <v>2.39</v>
+      </c>
+      <c r="O367" s="33"/>
+      <c r="P367" s="33"/>
+      <c r="Q367" s="33"/>
+      <c r="R367" s="33"/>
+      <c r="S367" s="33"/>
+      <c r="T367" s="32">
+        <v>62.47</v>
+      </c>
+      <c r="U367" s="32">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="V367" s="32"/>
+      <c r="W367" s="33"/>
+      <c r="X367" s="33"/>
+      <c r="Y367" s="33"/>
+      <c r="Z367" s="33"/>
+      <c r="AA367" s="33"/>
+      <c r="AB367" s="33">
+        <v>134.90154922538733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:28">
+      <c r="A368" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B368" s="34">
+        <v>41867</v>
+      </c>
+      <c r="C368" s="35">
+        <v>62</v>
+      </c>
+      <c r="D368" s="33"/>
+      <c r="E368" s="36">
+        <v>4</v>
+      </c>
+      <c r="F368" s="33"/>
+      <c r="G368" s="36"/>
+      <c r="H368" s="36"/>
+      <c r="I368" s="33"/>
+      <c r="J368" s="33"/>
+      <c r="K368" s="33"/>
+      <c r="L368" s="33"/>
+      <c r="M368" s="33"/>
+      <c r="N368" s="37"/>
+      <c r="O368" s="33"/>
+      <c r="P368" s="33"/>
+      <c r="Q368" s="33"/>
+      <c r="R368" s="33"/>
+      <c r="S368" s="33"/>
+      <c r="T368" s="32"/>
+      <c r="U368" s="32"/>
+      <c r="V368" s="32"/>
+      <c r="W368" s="33"/>
+      <c r="X368" s="33"/>
+      <c r="Y368" s="33"/>
+      <c r="Z368" s="33"/>
+      <c r="AA368" s="33"/>
+      <c r="AB368" s="33"/>
+    </row>
+    <row r="369" spans="1:28">
+      <c r="A369" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B369" s="34">
+        <v>41875</v>
+      </c>
+      <c r="C369" s="35">
+        <v>70</v>
+      </c>
+      <c r="D369" s="33"/>
+      <c r="E369" s="36"/>
+      <c r="F369" s="33"/>
+      <c r="G369" s="36"/>
+      <c r="H369" s="36"/>
+      <c r="I369" s="33"/>
+      <c r="J369" s="33"/>
+      <c r="K369" s="33"/>
+      <c r="L369" s="33"/>
+      <c r="M369" s="33"/>
+      <c r="N369" s="37">
+        <v>3.55</v>
+      </c>
+      <c r="O369" s="33"/>
+      <c r="P369" s="33"/>
+      <c r="Q369" s="33"/>
+      <c r="R369" s="33"/>
+      <c r="S369" s="33"/>
+      <c r="T369" s="32">
+        <v>125.56</v>
+      </c>
+      <c r="U369" s="32">
+        <v>135.31</v>
+      </c>
+      <c r="V369" s="32"/>
+      <c r="W369" s="33"/>
+      <c r="X369" s="33"/>
+      <c r="Y369" s="33"/>
+      <c r="Z369" s="33"/>
+      <c r="AA369" s="33"/>
+      <c r="AB369" s="33">
+        <v>244.12193903048473</v>
+      </c>
+    </row>
+    <row r="370" spans="1:28">
+      <c r="A370" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B370" s="34">
+        <v>41888</v>
+      </c>
+      <c r="C370" s="35">
+        <v>83</v>
+      </c>
+      <c r="D370" s="33"/>
+      <c r="E370" s="36"/>
+      <c r="F370" s="33"/>
+      <c r="G370" s="36"/>
+      <c r="H370" s="36"/>
+      <c r="I370" s="33"/>
+      <c r="J370" s="33"/>
+      <c r="K370" s="33"/>
+      <c r="L370" s="33"/>
+      <c r="M370" s="33"/>
+      <c r="N370" s="37">
+        <v>4.17</v>
+      </c>
+      <c r="O370" s="33"/>
+      <c r="P370" s="33"/>
+      <c r="Q370" s="33"/>
+      <c r="R370" s="33"/>
+      <c r="S370" s="33"/>
+      <c r="T370" s="32">
+        <v>175.13</v>
+      </c>
+      <c r="U370" s="32">
+        <v>247.13</v>
+      </c>
+      <c r="V370" s="32">
+        <v>11.61</v>
+      </c>
+      <c r="W370" s="33"/>
+      <c r="X370" s="33"/>
+      <c r="Y370" s="33"/>
+      <c r="Z370" s="33"/>
+      <c r="AA370" s="33"/>
+      <c r="AB370" s="33">
+        <v>433.36831584207897</v>
+      </c>
+    </row>
+    <row r="371" spans="1:28">
+      <c r="A371" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B371" s="34">
+        <v>41894</v>
+      </c>
+      <c r="C371" s="35">
+        <v>89</v>
+      </c>
+      <c r="D371" s="33"/>
+      <c r="E371" s="36"/>
+      <c r="F371" s="33"/>
+      <c r="G371" s="36"/>
+      <c r="H371" s="36"/>
+      <c r="I371" s="33"/>
+      <c r="J371" s="33"/>
+      <c r="K371" s="33"/>
+      <c r="L371" s="33"/>
+      <c r="M371" s="33"/>
+      <c r="N371" s="37"/>
+      <c r="O371" s="33"/>
+      <c r="P371" s="33"/>
+      <c r="Q371" s="33"/>
+      <c r="R371" s="33"/>
+      <c r="S371" s="33"/>
+      <c r="T371" s="32"/>
+      <c r="U371" s="32"/>
+      <c r="V371" s="32"/>
+      <c r="W371" s="33"/>
+      <c r="X371" s="33"/>
+      <c r="Y371" s="33"/>
+      <c r="Z371" s="33"/>
+      <c r="AA371" s="33"/>
+      <c r="AB371" s="33"/>
+    </row>
+    <row r="372" spans="1:28">
+      <c r="A372" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B372" s="34">
+        <v>41904</v>
+      </c>
+      <c r="C372" s="35">
+        <v>99</v>
+      </c>
+      <c r="D372" s="33"/>
+      <c r="E372" s="36"/>
+      <c r="F372" s="33"/>
+      <c r="G372" s="36"/>
+      <c r="H372" s="36"/>
+      <c r="I372" s="33"/>
+      <c r="J372" s="33"/>
+      <c r="K372" s="33"/>
+      <c r="L372" s="33"/>
+      <c r="M372" s="33"/>
+      <c r="N372" s="37">
+        <v>4.38</v>
+      </c>
+      <c r="O372" s="33"/>
+      <c r="P372" s="33"/>
+      <c r="Q372" s="33"/>
+      <c r="R372" s="33"/>
+      <c r="S372" s="33"/>
+      <c r="T372" s="32">
+        <v>153.37</v>
+      </c>
+      <c r="U372" s="32">
+        <v>230.9</v>
+      </c>
+      <c r="V372" s="32">
+        <v>119.9</v>
+      </c>
+      <c r="W372" s="33"/>
+      <c r="X372" s="33"/>
+      <c r="Y372" s="33"/>
+      <c r="Z372" s="33"/>
+      <c r="AA372" s="33"/>
+      <c r="AB372" s="33">
+        <v>484.35782108945523</v>
+      </c>
+    </row>
+    <row r="373" spans="1:28">
+      <c r="A373" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B373" s="34">
+        <v>41919</v>
+      </c>
+      <c r="C373" s="35">
+        <v>114</v>
+      </c>
+      <c r="D373" s="33"/>
+      <c r="E373" s="36"/>
+      <c r="F373" s="33"/>
+      <c r="G373" s="36"/>
+      <c r="H373" s="36"/>
+      <c r="I373" s="33"/>
+      <c r="J373" s="33"/>
+      <c r="K373" s="33"/>
+      <c r="L373" s="33"/>
+      <c r="M373" s="33"/>
+      <c r="N373" s="37">
+        <v>2.38</v>
+      </c>
+      <c r="O373" s="33"/>
+      <c r="P373" s="33"/>
+      <c r="Q373" s="33"/>
+      <c r="R373" s="33"/>
+      <c r="S373" s="33"/>
+      <c r="T373" s="32">
+        <v>111.25</v>
+      </c>
+      <c r="U373" s="32">
+        <v>212.8</v>
+      </c>
+      <c r="V373" s="32">
+        <v>195.26</v>
+      </c>
+      <c r="W373" s="33"/>
+      <c r="X373" s="33"/>
+      <c r="Y373" s="33"/>
+      <c r="Z373" s="33"/>
+      <c r="AA373" s="33"/>
+      <c r="AB373" s="33">
+        <v>501.54922538730642</v>
+      </c>
+    </row>
+    <row r="374" spans="1:28">
+      <c r="A374" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B374" s="34">
+        <v>41934</v>
+      </c>
+      <c r="C374" s="35">
+        <v>129</v>
+      </c>
+      <c r="D374" s="33"/>
+      <c r="E374" s="36"/>
+      <c r="F374" s="33"/>
+      <c r="G374" s="36"/>
+      <c r="H374" s="36"/>
+      <c r="I374" s="33"/>
+      <c r="J374" s="33"/>
+      <c r="K374" s="33"/>
+      <c r="L374" s="33"/>
+      <c r="M374" s="33"/>
+      <c r="N374" s="37"/>
+      <c r="O374" s="33"/>
+      <c r="P374" s="33"/>
+      <c r="Q374" s="33"/>
+      <c r="R374" s="33"/>
+      <c r="S374" s="33"/>
+      <c r="T374" s="32"/>
+      <c r="U374" s="32"/>
+      <c r="V374" s="32"/>
+      <c r="W374" s="33"/>
+      <c r="X374" s="33"/>
+      <c r="Y374" s="33"/>
+      <c r="Z374" s="33"/>
+      <c r="AA374" s="33"/>
+      <c r="AB374" s="33"/>
+    </row>
+    <row r="375" spans="1:28">
+      <c r="A375" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B375" s="34">
+        <v>41944</v>
+      </c>
+      <c r="C375" s="35">
+        <v>139</v>
+      </c>
+      <c r="D375" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E375" s="36">
+        <v>10</v>
+      </c>
+      <c r="F375" s="33"/>
+      <c r="G375" s="36">
+        <v>62</v>
+      </c>
+      <c r="H375" s="36">
+        <v>139</v>
+      </c>
+      <c r="I375" s="33"/>
+      <c r="J375" s="33"/>
+      <c r="K375" s="33"/>
+      <c r="L375" s="33"/>
+      <c r="M375" s="33"/>
+      <c r="N375" s="37"/>
+      <c r="O375" s="33"/>
+      <c r="P375" s="33"/>
+      <c r="Q375" s="33"/>
+      <c r="R375" s="33"/>
+      <c r="S375" s="33"/>
+      <c r="T375" s="32"/>
+      <c r="U375" s="32"/>
+      <c r="V375" s="32"/>
+      <c r="W375" s="33"/>
+      <c r="X375" s="33"/>
+      <c r="Y375" s="33"/>
+      <c r="Z375" s="33">
+        <v>162.81859070464765</v>
+      </c>
+      <c r="AA375" s="33"/>
+      <c r="AB375" s="33"/>
+    </row>
+    <row r="376" spans="1:28">
+      <c r="A376" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B376" s="34">
+        <v>42218</v>
+      </c>
+      <c r="C376" s="35">
+        <v>45</v>
+      </c>
+      <c r="D376" s="33"/>
+      <c r="E376" s="36"/>
+      <c r="F376" s="33"/>
+      <c r="G376" s="36"/>
+      <c r="H376" s="36"/>
+      <c r="I376" s="33"/>
+      <c r="J376" s="33"/>
+      <c r="K376" s="33"/>
+      <c r="L376" s="33"/>
+      <c r="M376" s="33"/>
+      <c r="N376" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="O376" s="33"/>
+      <c r="P376" s="33"/>
+      <c r="Q376" s="33"/>
+      <c r="R376" s="33"/>
+      <c r="S376" s="33"/>
+      <c r="T376" s="32">
+        <v>31.38</v>
+      </c>
+      <c r="U376" s="32">
+        <v>23.16</v>
+      </c>
+      <c r="V376" s="32"/>
+      <c r="W376" s="33"/>
+      <c r="X376" s="33"/>
+      <c r="Y376" s="33"/>
+      <c r="Z376" s="33"/>
+      <c r="AA376" s="33"/>
+      <c r="AB376" s="33">
+        <v>73.063468265867073</v>
+      </c>
+    </row>
+    <row r="377" spans="1:28">
+      <c r="A377" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B377" s="34">
+        <v>42232</v>
+      </c>
+      <c r="C377" s="35">
+        <v>59</v>
+      </c>
+      <c r="D377" s="33"/>
+      <c r="E377" s="36">
+        <v>4</v>
+      </c>
+      <c r="F377" s="33"/>
+      <c r="G377" s="36"/>
+      <c r="H377" s="36"/>
+      <c r="I377" s="33"/>
+      <c r="J377" s="33"/>
+      <c r="K377" s="33"/>
+      <c r="L377" s="33"/>
+      <c r="M377" s="33"/>
+      <c r="N377" s="37">
+        <v>3.7</v>
+      </c>
+      <c r="O377" s="33"/>
+      <c r="P377" s="33"/>
+      <c r="Q377" s="33"/>
+      <c r="R377" s="33"/>
+      <c r="S377" s="33"/>
+      <c r="T377" s="32">
+        <v>45.27</v>
+      </c>
+      <c r="U377" s="32">
+        <v>38.4</v>
+      </c>
+      <c r="V377" s="32"/>
+      <c r="W377" s="33"/>
+      <c r="X377" s="33"/>
+      <c r="Y377" s="33"/>
+      <c r="Z377" s="33"/>
+      <c r="AA377" s="33"/>
+      <c r="AB377" s="33">
+        <v>204.39780109945031</v>
+      </c>
+    </row>
+    <row r="378" spans="1:28">
+      <c r="A378" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B378" s="34">
+        <v>42246</v>
+      </c>
+      <c r="C378" s="35">
+        <v>73</v>
+      </c>
+      <c r="D378" s="33"/>
+      <c r="E378" s="36"/>
+      <c r="F378" s="33"/>
+      <c r="G378" s="36"/>
+      <c r="H378" s="36"/>
+      <c r="I378" s="33"/>
+      <c r="J378" s="33"/>
+      <c r="K378" s="33"/>
+      <c r="L378" s="33"/>
+      <c r="M378" s="33"/>
+      <c r="N378" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="O378" s="33"/>
+      <c r="P378" s="33"/>
+      <c r="Q378" s="33"/>
+      <c r="R378" s="33"/>
+      <c r="S378" s="33"/>
+      <c r="T378" s="32">
+        <v>114.53</v>
+      </c>
+      <c r="U378" s="32">
+        <v>126.5</v>
+      </c>
+      <c r="V378" s="32"/>
+      <c r="W378" s="33"/>
+      <c r="X378" s="33"/>
+      <c r="Y378" s="33"/>
+      <c r="Z378" s="33"/>
+      <c r="AA378" s="33"/>
+      <c r="AB378" s="33">
+        <v>335.73213393303348</v>
+      </c>
+    </row>
+    <row r="379" spans="1:28">
+      <c r="A379" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B379" s="34">
+        <v>42260</v>
+      </c>
+      <c r="C379" s="35">
+        <v>87</v>
+      </c>
+      <c r="D379" s="33"/>
+      <c r="E379" s="36"/>
+      <c r="F379" s="33"/>
+      <c r="G379" s="36"/>
+      <c r="H379" s="36"/>
+      <c r="I379" s="33"/>
+      <c r="J379" s="33"/>
+      <c r="K379" s="33"/>
+      <c r="L379" s="33"/>
+      <c r="M379" s="33"/>
+      <c r="N379" s="37">
+        <v>4.7</v>
+      </c>
+      <c r="O379" s="33"/>
+      <c r="P379" s="33"/>
+      <c r="Q379" s="33"/>
+      <c r="R379" s="33"/>
+      <c r="S379" s="33"/>
+      <c r="T379" s="32">
+        <v>125.73</v>
+      </c>
+      <c r="U379" s="32">
+        <v>134.16999999999999</v>
+      </c>
+      <c r="V379" s="32">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="W379" s="33"/>
+      <c r="X379" s="33"/>
+      <c r="Y379" s="33"/>
+      <c r="Z379" s="33"/>
+      <c r="AA379" s="33"/>
+      <c r="AB379" s="33">
+        <v>441.97901049475263</v>
+      </c>
+    </row>
+    <row r="380" spans="1:28">
+      <c r="A380" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B380" s="34">
+        <v>42274</v>
+      </c>
+      <c r="C380" s="35">
+        <v>101</v>
+      </c>
+      <c r="D380" s="33"/>
+      <c r="E380" s="36"/>
+      <c r="F380" s="33"/>
+      <c r="G380" s="36"/>
+      <c r="H380" s="36"/>
+      <c r="I380" s="33"/>
+      <c r="J380" s="33"/>
+      <c r="K380" s="33"/>
+      <c r="L380" s="33"/>
+      <c r="M380" s="33"/>
+      <c r="N380" s="37">
+        <v>3.9</v>
+      </c>
+      <c r="O380" s="33"/>
+      <c r="P380" s="33"/>
+      <c r="Q380" s="33"/>
+      <c r="R380" s="33"/>
+      <c r="S380" s="33"/>
+      <c r="T380" s="32">
+        <v>101</v>
+      </c>
+      <c r="U380" s="32">
+        <v>122.5</v>
+      </c>
+      <c r="V380" s="32">
+        <v>153.53</v>
+      </c>
+      <c r="W380" s="33"/>
+      <c r="X380" s="33"/>
+      <c r="Y380" s="33"/>
+      <c r="Z380" s="33"/>
+      <c r="AA380" s="33"/>
+      <c r="AB380" s="33">
+        <v>503.5482258870565</v>
+      </c>
+    </row>
+    <row r="381" spans="1:28">
+      <c r="A381" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B381" s="34">
+        <v>42288</v>
+      </c>
+      <c r="C381" s="35">
+        <v>115</v>
+      </c>
+      <c r="D381" s="33"/>
+      <c r="E381" s="36"/>
+      <c r="F381" s="33"/>
+      <c r="G381" s="36"/>
+      <c r="H381" s="36"/>
+      <c r="I381" s="33"/>
+      <c r="J381" s="33"/>
+      <c r="K381" s="33"/>
+      <c r="L381" s="33"/>
+      <c r="M381" s="33"/>
+      <c r="N381" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O381" s="33"/>
+      <c r="P381" s="33"/>
+      <c r="Q381" s="33"/>
+      <c r="R381" s="33"/>
+      <c r="S381" s="33"/>
+      <c r="T381" s="32">
+        <v>59.07</v>
+      </c>
+      <c r="U381" s="32">
+        <v>119.12</v>
+      </c>
+      <c r="V381" s="32">
+        <v>245</v>
+      </c>
+      <c r="W381" s="33"/>
+      <c r="X381" s="33"/>
+      <c r="Y381" s="33"/>
+      <c r="Z381" s="33"/>
+      <c r="AA381" s="33"/>
+      <c r="AB381" s="33">
+        <v>549.12543728135927</v>
+      </c>
+    </row>
+    <row r="382" spans="1:28">
+      <c r="A382" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B382" s="34">
+        <v>42299</v>
+      </c>
+      <c r="C382" s="35">
+        <v>126</v>
+      </c>
+      <c r="D382" s="33"/>
+      <c r="E382" s="36"/>
+      <c r="F382" s="33"/>
+      <c r="G382" s="36"/>
+      <c r="H382" s="36"/>
+      <c r="I382" s="33"/>
+      <c r="J382" s="33"/>
+      <c r="K382" s="33"/>
+      <c r="L382" s="33"/>
+      <c r="M382" s="33"/>
+      <c r="N382" s="37"/>
+      <c r="O382" s="33"/>
+      <c r="P382" s="33"/>
+      <c r="Q382" s="33"/>
+      <c r="R382" s="33"/>
+      <c r="S382" s="33"/>
+      <c r="T382" s="32"/>
+      <c r="U382" s="32"/>
+      <c r="V382" s="32"/>
+      <c r="W382" s="33"/>
+      <c r="X382" s="33"/>
+      <c r="Y382" s="33"/>
+      <c r="Z382" s="33"/>
+      <c r="AA382" s="33"/>
+      <c r="AB382" s="33"/>
+    </row>
+    <row r="383" spans="1:28">
+      <c r="A383" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B383" s="34">
+        <v>42309</v>
+      </c>
+      <c r="C383" s="35">
+        <v>136</v>
+      </c>
+      <c r="D383" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E383" s="36">
+        <v>10</v>
+      </c>
+      <c r="F383" s="33"/>
+      <c r="G383" s="36">
+        <v>59</v>
+      </c>
+      <c r="H383" s="36">
+        <v>136</v>
+      </c>
+      <c r="I383" s="33"/>
+      <c r="J383" s="33"/>
+      <c r="K383" s="33"/>
+      <c r="L383" s="33"/>
+      <c r="M383" s="33"/>
+      <c r="N383" s="37"/>
+      <c r="O383" s="33"/>
+      <c r="P383" s="33"/>
+      <c r="Q383" s="33"/>
+      <c r="R383" s="33"/>
+      <c r="S383" s="33"/>
+      <c r="T383" s="32"/>
+      <c r="U383" s="32"/>
+      <c r="V383" s="32"/>
+      <c r="W383" s="33"/>
+      <c r="X383" s="33"/>
+      <c r="Y383" s="33"/>
+      <c r="Z383" s="33">
+        <v>173.33233383308348</v>
+      </c>
+      <c r="AA383" s="33"/>
+      <c r="AB383" s="33"/>
+    </row>
+    <row r="384" spans="1:28">
+      <c r="A384" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B384" s="34">
+        <v>42571</v>
+      </c>
+      <c r="C384" s="35">
+        <v>32</v>
+      </c>
+      <c r="D384" s="33"/>
+      <c r="E384" s="36"/>
+      <c r="F384" s="33"/>
+      <c r="G384" s="36"/>
+      <c r="H384" s="36"/>
+      <c r="I384" s="33"/>
+      <c r="J384" s="33"/>
+      <c r="K384" s="33"/>
+      <c r="L384" s="33"/>
+      <c r="M384" s="33"/>
+      <c r="N384" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="O384" s="33"/>
+      <c r="P384" s="33"/>
+      <c r="Q384" s="33"/>
+      <c r="R384" s="33"/>
+      <c r="S384" s="33"/>
+      <c r="T384" s="32">
+        <v>7.13</v>
+      </c>
+      <c r="U384" s="32">
+        <v>4.37</v>
+      </c>
+      <c r="V384" s="32"/>
+      <c r="W384" s="33"/>
+      <c r="X384" s="33"/>
+      <c r="Y384" s="33"/>
+      <c r="Z384" s="33"/>
+      <c r="AA384" s="33"/>
+      <c r="AB384" s="33">
+        <v>12.609695152423786</v>
+      </c>
+    </row>
+    <row r="385" spans="1:28">
+      <c r="A385" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B385" s="34">
+        <v>42584</v>
+      </c>
+      <c r="C385" s="35">
+        <v>45</v>
+      </c>
+      <c r="D385" s="33"/>
+      <c r="E385" s="36"/>
+      <c r="F385" s="33"/>
+      <c r="G385" s="36"/>
+      <c r="H385" s="36"/>
+      <c r="I385" s="33"/>
+      <c r="J385" s="33"/>
+      <c r="K385" s="33"/>
+      <c r="L385" s="33"/>
+      <c r="M385" s="33"/>
+      <c r="N385" s="37">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O385" s="33"/>
+      <c r="P385" s="33"/>
+      <c r="Q385" s="33"/>
+      <c r="R385" s="33"/>
+      <c r="S385" s="33"/>
+      <c r="T385" s="32">
+        <v>40.07</v>
+      </c>
+      <c r="U385" s="32">
+        <v>27.53</v>
+      </c>
+      <c r="V385" s="32"/>
+      <c r="W385" s="33"/>
+      <c r="X385" s="33"/>
+      <c r="Y385" s="33"/>
+      <c r="Z385" s="33"/>
+      <c r="AA385" s="33"/>
+      <c r="AB385" s="33">
+        <v>69.114442778610709</v>
+      </c>
+    </row>
+    <row r="386" spans="1:28">
+      <c r="A386" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B386" s="34">
+        <v>42591</v>
+      </c>
+      <c r="C386" s="35">
+        <v>52</v>
+      </c>
+      <c r="D386" s="33"/>
+      <c r="E386" s="36"/>
+      <c r="F386" s="33"/>
+      <c r="G386" s="36"/>
+      <c r="H386" s="36"/>
+      <c r="I386" s="33"/>
+      <c r="J386" s="33"/>
+      <c r="K386" s="33"/>
+      <c r="L386" s="33"/>
+      <c r="M386" s="33"/>
+      <c r="N386" s="37">
+        <v>2.06</v>
+      </c>
+      <c r="O386" s="33"/>
+      <c r="P386" s="33"/>
+      <c r="Q386" s="33"/>
+      <c r="R386" s="33"/>
+      <c r="S386" s="33"/>
+      <c r="T386" s="32">
+        <v>89.97</v>
+      </c>
+      <c r="U386" s="32">
+        <v>45.07</v>
+      </c>
+      <c r="V386" s="32"/>
+      <c r="W386" s="33"/>
+      <c r="X386" s="33"/>
+      <c r="Y386" s="33"/>
+      <c r="Z386" s="33"/>
+      <c r="AA386" s="33"/>
+      <c r="AB386" s="33">
+        <v>137.6831584207896</v>
+      </c>
+    </row>
+    <row r="387" spans="1:28">
+      <c r="A387" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B387" s="34">
+        <v>42598</v>
+      </c>
+      <c r="C387" s="35">
+        <v>59</v>
+      </c>
+      <c r="D387" s="33"/>
+      <c r="E387" s="36">
+        <v>4</v>
+      </c>
+      <c r="F387" s="33"/>
+      <c r="G387" s="36"/>
+      <c r="H387" s="36"/>
+      <c r="I387" s="33"/>
+      <c r="J387" s="33"/>
+      <c r="K387" s="33"/>
+      <c r="L387" s="33"/>
+      <c r="M387" s="33"/>
+      <c r="N387" s="37">
+        <v>3.29</v>
+      </c>
+      <c r="O387" s="33"/>
+      <c r="P387" s="33"/>
+      <c r="Q387" s="33"/>
+      <c r="R387" s="33"/>
+      <c r="S387" s="33"/>
+      <c r="T387" s="32">
+        <v>90.17</v>
+      </c>
+      <c r="U387" s="32">
+        <v>82.47</v>
+      </c>
+      <c r="V387" s="32"/>
+      <c r="W387" s="33"/>
+      <c r="X387" s="33"/>
+      <c r="Y387" s="33"/>
+      <c r="Z387" s="33"/>
+      <c r="AA387" s="33"/>
+      <c r="AB387" s="33">
+        <v>169.78410794602701</v>
+      </c>
+    </row>
+    <row r="388" spans="1:28">
+      <c r="A388" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B388" s="34">
+        <v>42605</v>
+      </c>
+      <c r="C388" s="35">
+        <v>66</v>
+      </c>
+      <c r="D388" s="33"/>
+      <c r="E388" s="36"/>
+      <c r="F388" s="33"/>
+      <c r="G388" s="36"/>
+      <c r="H388" s="36"/>
+      <c r="I388" s="33"/>
+      <c r="J388" s="33"/>
+      <c r="K388" s="33"/>
+      <c r="L388" s="33"/>
+      <c r="M388" s="33"/>
+      <c r="N388" s="37">
+        <v>3.88</v>
+      </c>
+      <c r="O388" s="33"/>
+      <c r="P388" s="33"/>
+      <c r="Q388" s="33"/>
+      <c r="R388" s="33"/>
+      <c r="S388" s="33"/>
+      <c r="T388" s="32">
+        <v>159.63</v>
+      </c>
+      <c r="U388" s="32">
+        <v>148.5</v>
+      </c>
+      <c r="V388" s="32"/>
+      <c r="W388" s="33"/>
+      <c r="X388" s="33"/>
+      <c r="Y388" s="33"/>
+      <c r="Z388" s="33"/>
+      <c r="AA388" s="33"/>
+      <c r="AB388" s="33">
+        <v>278.27686156921538</v>
+      </c>
+    </row>
+    <row r="389" spans="1:28">
+      <c r="A389" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B389" s="34">
+        <v>42612</v>
+      </c>
+      <c r="C389" s="35">
+        <v>73</v>
+      </c>
+      <c r="D389" s="33"/>
+      <c r="E389" s="36"/>
+      <c r="F389" s="33"/>
+      <c r="G389" s="36"/>
+      <c r="H389" s="36"/>
+      <c r="I389" s="33"/>
+      <c r="J389" s="33"/>
+      <c r="K389" s="33"/>
+      <c r="L389" s="33"/>
+      <c r="M389" s="33"/>
+      <c r="N389" s="37">
+        <v>4.25</v>
+      </c>
+      <c r="O389" s="33"/>
+      <c r="P389" s="33"/>
+      <c r="Q389" s="33"/>
+      <c r="R389" s="33"/>
+      <c r="S389" s="33"/>
+      <c r="T389" s="32">
+        <v>171.47</v>
+      </c>
+      <c r="U389" s="32">
+        <v>187.17</v>
+      </c>
+      <c r="V389" s="32">
+        <v>52.9</v>
+      </c>
+      <c r="W389" s="33"/>
+      <c r="X389" s="33"/>
+      <c r="Y389" s="33"/>
+      <c r="Z389" s="33"/>
+      <c r="AA389" s="33"/>
+      <c r="AB389" s="33">
+        <v>375.85307346326834</v>
+      </c>
+    </row>
+    <row r="390" spans="1:28">
+      <c r="A390" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B390" s="34">
+        <v>42625</v>
+      </c>
+      <c r="C390" s="35">
+        <v>86</v>
+      </c>
+      <c r="D390" s="33"/>
+      <c r="E390" s="36"/>
+      <c r="F390" s="33"/>
+      <c r="G390" s="36"/>
+      <c r="H390" s="36"/>
+      <c r="I390" s="33"/>
+      <c r="J390" s="33"/>
+      <c r="K390" s="33"/>
+      <c r="L390" s="33"/>
+      <c r="M390" s="33"/>
+      <c r="N390" s="37"/>
+      <c r="O390" s="33"/>
+      <c r="P390" s="33"/>
+      <c r="Q390" s="33"/>
+      <c r="R390" s="33"/>
+      <c r="S390" s="33"/>
+      <c r="T390" s="32"/>
+      <c r="U390" s="32"/>
+      <c r="V390" s="32"/>
+      <c r="W390" s="33"/>
+      <c r="X390" s="33"/>
+      <c r="Y390" s="33"/>
+      <c r="Z390" s="33"/>
+      <c r="AA390" s="33"/>
+      <c r="AB390" s="33"/>
+    </row>
+    <row r="391" spans="1:28">
+      <c r="A391" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B391" s="34">
+        <v>42628</v>
+      </c>
+      <c r="C391" s="35">
+        <v>89</v>
+      </c>
+      <c r="D391" s="33"/>
+      <c r="E391" s="36"/>
+      <c r="F391" s="33"/>
+      <c r="G391" s="36"/>
+      <c r="H391" s="36"/>
+      <c r="I391" s="33"/>
+      <c r="J391" s="33"/>
+      <c r="K391" s="33"/>
+      <c r="L391" s="33"/>
+      <c r="M391" s="33"/>
+      <c r="N391" s="37">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="O391" s="33"/>
+      <c r="P391" s="33"/>
+      <c r="Q391" s="33"/>
+      <c r="R391" s="33"/>
+      <c r="S391" s="33"/>
+      <c r="T391" s="32">
+        <v>155.22999999999999</v>
+      </c>
+      <c r="U391" s="32">
+        <v>189.87</v>
+      </c>
+      <c r="V391" s="32">
+        <v>160.33000000000001</v>
+      </c>
+      <c r="W391" s="33"/>
+      <c r="X391" s="33"/>
+      <c r="Y391" s="33"/>
+      <c r="Z391" s="33"/>
+      <c r="AA391" s="33"/>
+      <c r="AB391" s="33">
+        <v>457.67616191904051</v>
+      </c>
+    </row>
+    <row r="392" spans="1:28">
+      <c r="A392" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B392" s="34">
+        <v>42643</v>
+      </c>
+      <c r="C392" s="35">
+        <v>104</v>
+      </c>
+      <c r="D392" s="33"/>
+      <c r="E392" s="36"/>
+      <c r="F392" s="33"/>
+      <c r="G392" s="36"/>
+      <c r="H392" s="36"/>
+      <c r="I392" s="33"/>
+      <c r="J392" s="33"/>
+      <c r="K392" s="33"/>
+      <c r="L392" s="33"/>
+      <c r="M392" s="33"/>
+      <c r="N392" s="37">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O392" s="33"/>
+      <c r="P392" s="33"/>
+      <c r="Q392" s="33"/>
+      <c r="R392" s="33"/>
+      <c r="S392" s="33"/>
+      <c r="T392" s="32">
+        <v>110.43</v>
+      </c>
+      <c r="U392" s="32">
+        <v>183</v>
+      </c>
+      <c r="V392" s="32">
+        <v>217.9</v>
+      </c>
+      <c r="W392" s="33"/>
+      <c r="X392" s="33"/>
+      <c r="Y392" s="33"/>
+      <c r="Z392" s="33"/>
+      <c r="AA392" s="33"/>
+      <c r="AB392" s="33">
+        <v>550.92453773113436</v>
+      </c>
+    </row>
+    <row r="393" spans="1:28">
+      <c r="A393" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B393" s="34">
+        <v>42665</v>
+      </c>
+      <c r="C393" s="35">
+        <v>126</v>
+      </c>
+      <c r="D393" s="33"/>
+      <c r="E393" s="36"/>
+      <c r="F393" s="33"/>
+      <c r="G393" s="36"/>
+      <c r="H393" s="36"/>
+      <c r="I393" s="33"/>
+      <c r="J393" s="33"/>
+      <c r="K393" s="33"/>
+      <c r="L393" s="33"/>
+      <c r="M393" s="33"/>
+      <c r="N393" s="37"/>
+      <c r="O393" s="33"/>
+      <c r="P393" s="33"/>
+      <c r="Q393" s="33"/>
+      <c r="R393" s="33"/>
+      <c r="S393" s="33"/>
+      <c r="T393" s="32"/>
+      <c r="U393" s="32"/>
+      <c r="V393" s="32"/>
+      <c r="W393" s="33"/>
+      <c r="X393" s="33"/>
+      <c r="Y393" s="33"/>
+      <c r="Z393" s="33"/>
+      <c r="AA393" s="33"/>
+      <c r="AB393" s="33"/>
+    </row>
+    <row r="394" spans="1:28">
+      <c r="A394" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B394" s="34">
+        <v>42675</v>
+      </c>
+      <c r="C394" s="35">
+        <v>136</v>
+      </c>
+      <c r="D394" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E394" s="36">
+        <v>10</v>
+      </c>
+      <c r="F394" s="33"/>
+      <c r="G394" s="36">
+        <v>59</v>
+      </c>
+      <c r="H394" s="36">
+        <v>136</v>
+      </c>
+      <c r="I394" s="33"/>
+      <c r="J394" s="33"/>
+      <c r="K394" s="33"/>
+      <c r="L394" s="33"/>
+      <c r="M394" s="33"/>
+      <c r="N394" s="37"/>
+      <c r="O394" s="33"/>
+      <c r="P394" s="33"/>
+      <c r="Q394" s="33"/>
+      <c r="R394" s="33"/>
+      <c r="S394" s="33"/>
+      <c r="T394" s="32"/>
+      <c r="U394" s="32"/>
+      <c r="V394" s="32"/>
+      <c r="W394" s="33"/>
+      <c r="X394" s="33"/>
+      <c r="Y394" s="33"/>
+      <c r="Z394" s="33">
+        <v>169.37631184407795</v>
+      </c>
+      <c r="AA394" s="33"/>
+      <c r="AB394" s="33"/>
+    </row>
+    <row r="395" spans="1:28">
+      <c r="A395" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B395" s="34">
+        <v>41847</v>
+      </c>
+      <c r="C395" s="35">
+        <v>42</v>
+      </c>
+      <c r="D395" s="33"/>
+      <c r="E395" s="36"/>
+      <c r="F395" s="33"/>
+      <c r="G395" s="36"/>
+      <c r="H395" s="36"/>
+      <c r="I395" s="33"/>
+      <c r="J395" s="33"/>
+      <c r="K395" s="33"/>
+      <c r="L395" s="33"/>
+      <c r="M395" s="33"/>
+      <c r="N395" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="O395" s="33"/>
+      <c r="P395" s="33"/>
+      <c r="Q395" s="33"/>
+      <c r="R395" s="33"/>
+      <c r="S395" s="33"/>
+      <c r="T395" s="32">
+        <v>31.72</v>
+      </c>
+      <c r="U395" s="32">
+        <v>16.59</v>
+      </c>
+      <c r="V395" s="32"/>
+      <c r="W395" s="33"/>
+      <c r="X395" s="33"/>
+      <c r="Y395" s="33"/>
+      <c r="Z395" s="33"/>
+      <c r="AA395" s="33"/>
+      <c r="AB395" s="33">
+        <v>47.038480759620185</v>
+      </c>
+    </row>
+    <row r="396" spans="1:28">
+      <c r="A396" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B396" s="34">
+        <v>41860</v>
+      </c>
+      <c r="C396" s="35">
+        <v>55</v>
+      </c>
+      <c r="D396" s="33"/>
+      <c r="E396" s="36">
+        <v>4</v>
+      </c>
+      <c r="F396" s="33"/>
+      <c r="G396" s="36"/>
+      <c r="H396" s="36"/>
+      <c r="I396" s="33"/>
+      <c r="J396" s="33"/>
+      <c r="K396" s="33"/>
+      <c r="L396" s="33"/>
+      <c r="M396" s="33"/>
+      <c r="N396" s="37">
+        <v>2.86</v>
+      </c>
+      <c r="O396" s="33"/>
+      <c r="P396" s="33"/>
+      <c r="Q396" s="33"/>
+      <c r="R396" s="33"/>
+      <c r="S396" s="33"/>
+      <c r="T396" s="32">
+        <v>95</v>
+      </c>
+      <c r="U396" s="32">
+        <v>111.31</v>
+      </c>
+      <c r="V396" s="32"/>
+      <c r="W396" s="33"/>
+      <c r="X396" s="33"/>
+      <c r="Y396" s="33"/>
+      <c r="Z396" s="33"/>
+      <c r="AA396" s="33"/>
+      <c r="AB396" s="33">
+        <v>206.08795602198902</v>
+      </c>
+    </row>
+    <row r="397" spans="1:28">
+      <c r="A397" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B397" s="34">
+        <v>41875</v>
+      </c>
+      <c r="C397" s="35">
+        <v>70</v>
+      </c>
+      <c r="D397" s="33"/>
+      <c r="E397" s="36"/>
+      <c r="F397" s="33"/>
+      <c r="G397" s="36"/>
+      <c r="H397" s="36"/>
+      <c r="I397" s="33"/>
+      <c r="J397" s="33"/>
+      <c r="K397" s="33"/>
+      <c r="L397" s="33"/>
+      <c r="M397" s="33"/>
+      <c r="N397" s="37">
+        <v>3.44</v>
+      </c>
+      <c r="O397" s="33"/>
+      <c r="P397" s="33"/>
+      <c r="Q397" s="33"/>
+      <c r="R397" s="33"/>
+      <c r="S397" s="33"/>
+      <c r="T397" s="32">
+        <v>129.62</v>
+      </c>
+      <c r="U397" s="32">
+        <v>166.39</v>
+      </c>
+      <c r="V397" s="32"/>
+      <c r="W397" s="33"/>
+      <c r="X397" s="33"/>
+      <c r="Y397" s="33"/>
+      <c r="Z397" s="33"/>
+      <c r="AA397" s="33"/>
+      <c r="AB397" s="33">
+        <v>290.40379810094953</v>
+      </c>
+    </row>
+    <row r="398" spans="1:28">
+      <c r="A398" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B398" s="34">
+        <v>41885</v>
+      </c>
+      <c r="C398" s="35">
+        <v>80</v>
+      </c>
+      <c r="D398" s="33"/>
+      <c r="E398" s="36"/>
+      <c r="F398" s="33"/>
+      <c r="G398" s="36"/>
+      <c r="H398" s="36"/>
+      <c r="I398" s="33"/>
+      <c r="J398" s="33"/>
+      <c r="K398" s="33"/>
+      <c r="L398" s="33"/>
+      <c r="M398" s="33"/>
+      <c r="N398" s="37"/>
+      <c r="O398" s="33"/>
+      <c r="P398" s="33"/>
+      <c r="Q398" s="33"/>
+      <c r="R398" s="33"/>
+      <c r="S398" s="33"/>
+      <c r="T398" s="32"/>
+      <c r="U398" s="32"/>
+      <c r="V398" s="32"/>
+      <c r="W398" s="33"/>
+      <c r="X398" s="33"/>
+      <c r="Y398" s="33"/>
+      <c r="Z398" s="33"/>
+      <c r="AA398" s="33"/>
+      <c r="AB398" s="33"/>
+    </row>
+    <row r="399" spans="1:28">
+      <c r="A399" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B399" s="34">
+        <v>41888</v>
+      </c>
+      <c r="C399" s="35">
+        <v>83</v>
+      </c>
+      <c r="D399" s="33"/>
+      <c r="E399" s="36"/>
+      <c r="F399" s="33"/>
+      <c r="G399" s="36"/>
+      <c r="H399" s="36"/>
+      <c r="I399" s="33"/>
+      <c r="J399" s="33"/>
+      <c r="K399" s="33"/>
+      <c r="L399" s="33"/>
+      <c r="M399" s="33"/>
+      <c r="N399" s="37">
+        <v>2.27</v>
+      </c>
+      <c r="O399" s="33"/>
+      <c r="P399" s="33"/>
+      <c r="Q399" s="33"/>
+      <c r="R399" s="33"/>
+      <c r="S399" s="33"/>
+      <c r="T399" s="32">
+        <v>145.56</v>
+      </c>
+      <c r="U399" s="32">
+        <v>249.46</v>
+      </c>
+      <c r="V399" s="32">
+        <v>76.8</v>
+      </c>
+      <c r="W399" s="33"/>
+      <c r="X399" s="33"/>
+      <c r="Y399" s="33"/>
+      <c r="Z399" s="33"/>
+      <c r="AA399" s="33"/>
+      <c r="AB399" s="33">
+        <v>367.31634182908545</v>
+      </c>
+    </row>
+    <row r="400" spans="1:28">
+      <c r="A400" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B400" s="34">
+        <v>41904</v>
+      </c>
+      <c r="C400" s="35">
+        <v>99</v>
+      </c>
+      <c r="D400" s="33"/>
+      <c r="E400" s="36"/>
+      <c r="F400" s="33"/>
+      <c r="G400" s="36"/>
+      <c r="H400" s="36"/>
+      <c r="I400" s="33"/>
+      <c r="J400" s="33"/>
+      <c r="K400" s="33"/>
+      <c r="L400" s="33"/>
+      <c r="M400" s="33"/>
+      <c r="N400" s="37">
+        <v>1.72</v>
+      </c>
+      <c r="O400" s="33"/>
+      <c r="P400" s="33"/>
+      <c r="Q400" s="33"/>
+      <c r="R400" s="33"/>
+      <c r="S400" s="33"/>
+      <c r="T400" s="32">
+        <v>118.52</v>
+      </c>
+      <c r="U400" s="32">
+        <v>230.29</v>
+      </c>
+      <c r="V400" s="32">
+        <v>157.16999999999999</v>
+      </c>
+      <c r="W400" s="33"/>
+      <c r="X400" s="33"/>
+      <c r="Y400" s="33"/>
+      <c r="Z400" s="33"/>
+      <c r="AA400" s="33"/>
+      <c r="AB400" s="33">
+        <v>413.16841579210387</v>
+      </c>
+    </row>
+    <row r="401" spans="1:28">
+      <c r="A401" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B401" s="34">
+        <v>41919</v>
+      </c>
+      <c r="C401" s="35">
+        <v>114</v>
+      </c>
+      <c r="D401" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E401" s="36">
+        <v>10</v>
+      </c>
+      <c r="F401" s="33"/>
+      <c r="G401" s="36">
+        <v>55</v>
+      </c>
+      <c r="H401" s="36">
+        <v>114</v>
+      </c>
+      <c r="I401" s="33"/>
+      <c r="J401" s="33"/>
+      <c r="K401" s="33"/>
+      <c r="L401" s="33"/>
+      <c r="M401" s="33"/>
+      <c r="N401" s="37"/>
+      <c r="O401" s="33"/>
+      <c r="P401" s="33"/>
+      <c r="Q401" s="33"/>
+      <c r="R401" s="33"/>
+      <c r="S401" s="33"/>
+      <c r="T401" s="32"/>
+      <c r="U401" s="32"/>
+      <c r="V401" s="32"/>
+      <c r="W401" s="33"/>
+      <c r="X401" s="33"/>
+      <c r="Y401" s="33"/>
+      <c r="Z401" s="33">
+        <v>99.850074962518732</v>
+      </c>
+      <c r="AA401" s="33"/>
+      <c r="AB401" s="33"/>
+    </row>
+    <row r="402" spans="1:28">
+      <c r="A402" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B402" s="34">
+        <v>42218</v>
+      </c>
+      <c r="C402" s="35">
+        <v>45</v>
+      </c>
+      <c r="D402" s="33"/>
+      <c r="E402" s="36"/>
+      <c r="F402" s="33"/>
+      <c r="G402" s="36"/>
+      <c r="H402" s="36"/>
+      <c r="I402" s="33"/>
+      <c r="J402" s="33"/>
+      <c r="K402" s="33"/>
+      <c r="L402" s="33"/>
+      <c r="M402" s="33"/>
+      <c r="N402" s="37">
+        <v>1.34</v>
+      </c>
+      <c r="O402" s="33"/>
+      <c r="P402" s="33"/>
+      <c r="Q402" s="33"/>
+      <c r="R402" s="33"/>
+      <c r="S402" s="33"/>
+      <c r="T402" s="32">
+        <v>22.8</v>
+      </c>
+      <c r="U402" s="32">
+        <v>13.96</v>
+      </c>
+      <c r="V402" s="32"/>
+      <c r="W402" s="33"/>
+      <c r="X402" s="33"/>
+      <c r="Y402" s="33"/>
+      <c r="Z402" s="33"/>
+      <c r="AA402" s="33"/>
+      <c r="AB402" s="33">
+        <v>84.957521239380299</v>
+      </c>
+    </row>
+    <row r="403" spans="1:28">
+      <c r="A403" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B403" s="34">
+        <v>42225</v>
+      </c>
+      <c r="C403" s="35">
+        <v>52</v>
+      </c>
+      <c r="D403" s="33"/>
+      <c r="E403" s="36">
+        <v>4</v>
+      </c>
+      <c r="F403" s="33"/>
+      <c r="G403" s="36"/>
+      <c r="H403" s="36"/>
+      <c r="I403" s="33"/>
+      <c r="J403" s="33"/>
+      <c r="K403" s="33"/>
+      <c r="L403" s="33"/>
+      <c r="M403" s="33"/>
+      <c r="N403" s="37"/>
+      <c r="O403" s="33"/>
+      <c r="P403" s="33"/>
+      <c r="Q403" s="33"/>
+      <c r="R403" s="33"/>
+      <c r="S403" s="33"/>
+      <c r="T403" s="32"/>
+      <c r="U403" s="32"/>
+      <c r="V403" s="32"/>
+      <c r="W403" s="33"/>
+      <c r="X403" s="33"/>
+      <c r="Y403" s="33"/>
+      <c r="Z403" s="33"/>
+      <c r="AA403" s="33"/>
+      <c r="AB403" s="33"/>
+    </row>
+    <row r="404" spans="1:28">
+      <c r="A404" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B404" s="34">
+        <v>42232</v>
+      </c>
+      <c r="C404" s="35">
+        <v>59</v>
+      </c>
+      <c r="D404" s="33"/>
+      <c r="E404" s="36"/>
+      <c r="F404" s="33"/>
+      <c r="G404" s="36"/>
+      <c r="H404" s="36"/>
+      <c r="I404" s="33"/>
+      <c r="J404" s="33"/>
+      <c r="K404" s="33"/>
+      <c r="L404" s="33"/>
+      <c r="M404" s="33"/>
+      <c r="N404" s="37">
+        <v>3.57</v>
+      </c>
+      <c r="O404" s="33"/>
+      <c r="P404" s="33"/>
+      <c r="Q404" s="33"/>
+      <c r="R404" s="33"/>
+      <c r="S404" s="33"/>
+      <c r="T404" s="32">
+        <v>38.03</v>
+      </c>
+      <c r="U404" s="32">
+        <v>33</v>
+      </c>
+      <c r="V404" s="32"/>
+      <c r="W404" s="33"/>
+      <c r="X404" s="33"/>
+      <c r="Y404" s="33"/>
+      <c r="Z404" s="33"/>
+      <c r="AA404" s="33"/>
+      <c r="AB404" s="33">
+        <v>207.79610194902548</v>
+      </c>
+    </row>
+    <row r="405" spans="1:28">
+      <c r="A405" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B405" s="34">
+        <v>42246</v>
+      </c>
+      <c r="C405" s="35">
+        <v>73</v>
+      </c>
+      <c r="D405" s="33"/>
+      <c r="E405" s="36"/>
+      <c r="F405" s="33"/>
+      <c r="G405" s="36"/>
+      <c r="H405" s="36"/>
+      <c r="I405" s="33"/>
+      <c r="J405" s="33"/>
+      <c r="K405" s="33"/>
+      <c r="L405" s="33"/>
+      <c r="M405" s="33"/>
+      <c r="N405" s="37">
+        <v>4.04</v>
+      </c>
+      <c r="O405" s="33"/>
+      <c r="P405" s="33"/>
+      <c r="Q405" s="33"/>
+      <c r="R405" s="33"/>
+      <c r="S405" s="33"/>
+      <c r="T405" s="32">
+        <v>109.63</v>
+      </c>
+      <c r="U405" s="32">
+        <v>90.4</v>
+      </c>
+      <c r="V405" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="W405" s="33"/>
+      <c r="X405" s="33"/>
+      <c r="Y405" s="33"/>
+      <c r="Z405" s="33"/>
+      <c r="AA405" s="33"/>
+      <c r="AB405" s="33">
+        <v>362.71864067966021</v>
+      </c>
+    </row>
+    <row r="406" spans="1:28">
+      <c r="A406" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B406" s="34">
+        <v>42260</v>
+      </c>
+      <c r="C406" s="35">
+        <v>87</v>
+      </c>
+      <c r="D406" s="33"/>
+      <c r="E406" s="36"/>
+      <c r="F406" s="33"/>
+      <c r="G406" s="36"/>
+      <c r="H406" s="36"/>
+      <c r="I406" s="33"/>
+      <c r="J406" s="33"/>
+      <c r="K406" s="33"/>
+      <c r="L406" s="33"/>
+      <c r="M406" s="33"/>
+      <c r="N406" s="37">
+        <v>2.52</v>
+      </c>
+      <c r="O406" s="33"/>
+      <c r="P406" s="33"/>
+      <c r="Q406" s="33"/>
+      <c r="R406" s="33"/>
+      <c r="S406" s="33"/>
+      <c r="T406" s="32">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="U406" s="32">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="V406" s="32">
+        <v>80.849999999999994</v>
+      </c>
+      <c r="W406" s="33"/>
+      <c r="X406" s="33"/>
+      <c r="Y406" s="33"/>
+      <c r="Z406" s="33"/>
+      <c r="AA406" s="33"/>
+      <c r="AB406" s="33">
+        <v>405.59720139930039</v>
+      </c>
+    </row>
+    <row r="407" spans="1:28">
+      <c r="A407" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B407" s="34">
+        <v>42274</v>
+      </c>
+      <c r="C407" s="35">
+        <v>101</v>
+      </c>
+      <c r="D407" s="33"/>
+      <c r="E407" s="36"/>
+      <c r="F407" s="33"/>
+      <c r="G407" s="36"/>
+      <c r="H407" s="36"/>
+      <c r="I407" s="33"/>
+      <c r="J407" s="33"/>
+      <c r="K407" s="33"/>
+      <c r="L407" s="33"/>
+      <c r="M407" s="33"/>
+      <c r="N407" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="O407" s="33"/>
+      <c r="P407" s="33"/>
+      <c r="Q407" s="33"/>
+      <c r="R407" s="33"/>
+      <c r="S407" s="33"/>
+      <c r="T407" s="32">
+        <v>75.05</v>
+      </c>
+      <c r="U407" s="32">
+        <v>101.55</v>
+      </c>
+      <c r="V407" s="32">
+        <v>245.25</v>
+      </c>
+      <c r="W407" s="33"/>
+      <c r="X407" s="33"/>
+      <c r="Y407" s="33"/>
+      <c r="Z407" s="33"/>
+      <c r="AA407" s="33"/>
+      <c r="AB407" s="33">
+        <v>441.57921039480266</v>
+      </c>
+    </row>
+    <row r="408" spans="1:28">
+      <c r="A408" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B408" s="34">
+        <v>42284</v>
+      </c>
+      <c r="C408" s="35">
+        <v>111</v>
+      </c>
+      <c r="D408" s="33"/>
+      <c r="E408" s="36"/>
+      <c r="F408" s="33"/>
+      <c r="G408" s="36"/>
+      <c r="H408" s="36"/>
+      <c r="I408" s="33"/>
+      <c r="J408" s="33"/>
+      <c r="K408" s="33"/>
+      <c r="L408" s="33"/>
+      <c r="M408" s="33"/>
+      <c r="N408" s="37"/>
+      <c r="O408" s="33"/>
+      <c r="P408" s="33"/>
+      <c r="Q408" s="33"/>
+      <c r="R408" s="33"/>
+      <c r="S408" s="33"/>
+      <c r="T408" s="32"/>
+      <c r="U408" s="32"/>
+      <c r="V408" s="32"/>
+      <c r="W408" s="33"/>
+      <c r="X408" s="33"/>
+      <c r="Y408" s="33"/>
+      <c r="Z408" s="33"/>
+      <c r="AA408" s="33"/>
+      <c r="AB408" s="33"/>
+    </row>
+    <row r="409" spans="1:28">
+      <c r="A409" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B409" s="34">
+        <v>42288</v>
+      </c>
+      <c r="C409" s="35">
+        <v>115</v>
+      </c>
+      <c r="D409" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E409" s="36">
+        <v>10</v>
+      </c>
+      <c r="F409" s="33"/>
+      <c r="G409" s="36">
+        <v>52</v>
+      </c>
+      <c r="H409" s="36">
+        <v>115</v>
+      </c>
+      <c r="I409" s="33"/>
+      <c r="J409" s="33"/>
+      <c r="K409" s="33"/>
+      <c r="L409" s="33"/>
+      <c r="M409" s="33"/>
+      <c r="N409" s="37"/>
+      <c r="O409" s="33"/>
+      <c r="P409" s="33"/>
+      <c r="Q409" s="33"/>
+      <c r="R409" s="33"/>
+      <c r="S409" s="33"/>
+      <c r="T409" s="32"/>
+      <c r="U409" s="32"/>
+      <c r="V409" s="32"/>
+      <c r="W409" s="33"/>
+      <c r="X409" s="33"/>
+      <c r="Y409" s="33"/>
+      <c r="Z409" s="33">
+        <v>123.70714642678662</v>
+      </c>
+      <c r="AA409" s="33"/>
+      <c r="AB409" s="33"/>
+    </row>
+    <row r="410" spans="1:28">
+      <c r="A410" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B410" s="34">
+        <v>42571</v>
+      </c>
+      <c r="C410" s="35">
+        <v>32</v>
+      </c>
+      <c r="D410" s="33"/>
+      <c r="E410" s="36"/>
+      <c r="F410" s="33"/>
+      <c r="G410" s="36"/>
+      <c r="H410" s="36"/>
+      <c r="I410" s="33"/>
+      <c r="J410" s="33"/>
+      <c r="K410" s="33"/>
+      <c r="L410" s="33"/>
+      <c r="M410" s="33"/>
+      <c r="N410" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="O410" s="33"/>
+      <c r="P410" s="33"/>
+      <c r="Q410" s="33"/>
+      <c r="R410" s="33"/>
+      <c r="S410" s="33"/>
+      <c r="T410" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="U410" s="32">
+        <v>5.37</v>
+      </c>
+      <c r="V410" s="32"/>
+      <c r="W410" s="33"/>
+      <c r="X410" s="33"/>
+      <c r="Y410" s="33"/>
+      <c r="Z410" s="33"/>
+      <c r="AA410" s="33"/>
+      <c r="AB410" s="33">
+        <v>14.0039980009995</v>
+      </c>
+    </row>
+    <row r="411" spans="1:28">
+      <c r="A411" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B411" s="34">
+        <v>42584</v>
+      </c>
+      <c r="C411" s="35">
+        <v>45</v>
+      </c>
+      <c r="D411" s="33"/>
+      <c r="E411" s="36"/>
+      <c r="F411" s="33"/>
+      <c r="G411" s="36"/>
+      <c r="H411" s="36"/>
+      <c r="I411" s="33"/>
+      <c r="J411" s="33"/>
+      <c r="K411" s="33"/>
+      <c r="L411" s="33"/>
+      <c r="M411" s="33"/>
+      <c r="N411" s="37">
+        <v>1.22</v>
+      </c>
+      <c r="O411" s="33"/>
+      <c r="P411" s="33"/>
+      <c r="Q411" s="33"/>
+      <c r="R411" s="33"/>
+      <c r="S411" s="33"/>
+      <c r="T411" s="32">
+        <v>25.97</v>
+      </c>
+      <c r="U411" s="32">
+        <v>13.43</v>
+      </c>
+      <c r="V411" s="32"/>
+      <c r="W411" s="33"/>
+      <c r="X411" s="33"/>
+      <c r="Y411" s="33"/>
+      <c r="Z411" s="33"/>
+      <c r="AA411" s="33"/>
+      <c r="AB411" s="33">
+        <v>39.970014992503749</v>
+      </c>
+    </row>
+    <row r="412" spans="1:28">
+      <c r="A412" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B412" s="34">
+        <v>42591</v>
+      </c>
+      <c r="C412" s="35">
+        <v>52</v>
+      </c>
+      <c r="D412" s="33"/>
+      <c r="E412" s="36">
+        <v>4</v>
+      </c>
+      <c r="F412" s="33"/>
+      <c r="G412" s="36"/>
+      <c r="H412" s="36"/>
+      <c r="I412" s="33"/>
+      <c r="J412" s="33"/>
+      <c r="K412" s="33"/>
+      <c r="L412" s="33"/>
+      <c r="M412" s="33"/>
+      <c r="N412" s="37">
+        <v>1.91</v>
+      </c>
+      <c r="O412" s="33"/>
+      <c r="P412" s="33"/>
+      <c r="Q412" s="33"/>
+      <c r="R412" s="33"/>
+      <c r="S412" s="33"/>
+      <c r="T412" s="32">
+        <v>90.43</v>
+      </c>
+      <c r="U412" s="32">
+        <v>48.12</v>
+      </c>
+      <c r="V412" s="32"/>
+      <c r="W412" s="33"/>
+      <c r="X412" s="33"/>
+      <c r="Y412" s="33"/>
+      <c r="Z412" s="33"/>
+      <c r="AA412" s="33"/>
+      <c r="AB412" s="33">
+        <v>138.05297351324339</v>
+      </c>
+    </row>
+    <row r="413" spans="1:28">
+      <c r="A413" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B413" s="34">
+        <v>42598</v>
+      </c>
+      <c r="C413" s="35">
+        <v>59</v>
+      </c>
+      <c r="D413" s="33"/>
+      <c r="E413" s="36"/>
+      <c r="F413" s="33"/>
+      <c r="G413" s="36"/>
+      <c r="H413" s="36"/>
+      <c r="I413" s="33"/>
+      <c r="J413" s="33"/>
+      <c r="K413" s="33"/>
+      <c r="L413" s="33"/>
+      <c r="M413" s="33"/>
+      <c r="N413" s="37">
+        <v>2.76</v>
+      </c>
+      <c r="O413" s="33"/>
+      <c r="P413" s="33"/>
+      <c r="Q413" s="33"/>
+      <c r="R413" s="33"/>
+      <c r="S413" s="33"/>
+      <c r="T413" s="32">
+        <v>101.53</v>
+      </c>
+      <c r="U413" s="32">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="V413" s="32"/>
+      <c r="W413" s="33"/>
+      <c r="X413" s="33"/>
+      <c r="Y413" s="33"/>
+      <c r="Z413" s="33"/>
+      <c r="AA413" s="33"/>
+      <c r="AB413" s="33">
+        <v>178.96351824087955</v>
+      </c>
+    </row>
+    <row r="414" spans="1:28">
+      <c r="A414" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B414" s="34">
+        <v>42605</v>
+      </c>
+      <c r="C414" s="35">
+        <v>66</v>
+      </c>
+      <c r="D414" s="33"/>
+      <c r="E414" s="36"/>
+      <c r="F414" s="33"/>
+      <c r="G414" s="36"/>
+      <c r="H414" s="36"/>
+      <c r="I414" s="33"/>
+      <c r="J414" s="33"/>
+      <c r="K414" s="33"/>
+      <c r="L414" s="33"/>
+      <c r="M414" s="33"/>
+      <c r="N414" s="37">
+        <v>3.6</v>
+      </c>
+      <c r="O414" s="33"/>
+      <c r="P414" s="33"/>
+      <c r="Q414" s="33"/>
+      <c r="R414" s="33"/>
+      <c r="S414" s="33"/>
+      <c r="T414" s="32">
+        <v>125.23</v>
+      </c>
+      <c r="U414" s="32">
+        <v>108.4</v>
+      </c>
+      <c r="V414" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W414" s="33"/>
+      <c r="X414" s="33"/>
+      <c r="Y414" s="33"/>
+      <c r="Z414" s="33"/>
+      <c r="AA414" s="33"/>
+      <c r="AB414" s="33">
+        <v>257.67116441779115</v>
+      </c>
+    </row>
+    <row r="415" spans="1:28">
+      <c r="A415" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B415" s="34">
+        <v>42612</v>
+      </c>
+      <c r="C415" s="35">
+        <v>73</v>
+      </c>
+      <c r="D415" s="33"/>
+      <c r="E415" s="36"/>
+      <c r="F415" s="33"/>
+      <c r="G415" s="36"/>
+      <c r="H415" s="36"/>
+      <c r="I415" s="33"/>
+      <c r="J415" s="33"/>
+      <c r="K415" s="33"/>
+      <c r="L415" s="33"/>
+      <c r="M415" s="33"/>
+      <c r="N415" s="37">
+        <v>3.73</v>
+      </c>
+      <c r="O415" s="33"/>
+      <c r="P415" s="33"/>
+      <c r="Q415" s="33"/>
+      <c r="R415" s="33"/>
+      <c r="S415" s="33"/>
+      <c r="T415" s="32">
+        <v>140</v>
+      </c>
+      <c r="U415" s="32">
+        <v>151.1</v>
+      </c>
+      <c r="V415" s="32">
+        <v>65</v>
+      </c>
+      <c r="W415" s="33"/>
+      <c r="X415" s="33"/>
+      <c r="Y415" s="33"/>
+      <c r="Z415" s="33"/>
+      <c r="AA415" s="33"/>
+      <c r="AB415" s="33">
+        <v>358.30584707646176</v>
+      </c>
+    </row>
+    <row r="416" spans="1:28">
+      <c r="A416" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B416" s="34">
+        <v>42616</v>
+      </c>
+      <c r="C416" s="35">
+        <v>77</v>
+      </c>
+      <c r="D416" s="33"/>
+      <c r="E416" s="36"/>
+      <c r="F416" s="33"/>
+      <c r="G416" s="36"/>
+      <c r="H416" s="36"/>
+      <c r="I416" s="33"/>
+      <c r="J416" s="33"/>
+      <c r="K416" s="33"/>
+      <c r="L416" s="33"/>
+      <c r="M416" s="33"/>
+      <c r="N416" s="37"/>
+      <c r="O416" s="33"/>
+      <c r="P416" s="33"/>
+      <c r="Q416" s="33"/>
+      <c r="R416" s="33"/>
+      <c r="S416" s="33"/>
+      <c r="T416" s="32"/>
+      <c r="U416" s="32"/>
+      <c r="V416" s="32"/>
+      <c r="W416" s="33"/>
+      <c r="X416" s="33"/>
+      <c r="Y416" s="33"/>
+      <c r="Z416" s="33"/>
+      <c r="AA416" s="33"/>
+      <c r="AB416" s="33"/>
+    </row>
+    <row r="417" spans="1:28">
+      <c r="A417" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B417" s="34">
+        <v>42628</v>
+      </c>
+      <c r="C417" s="35">
+        <v>89</v>
+      </c>
+      <c r="D417" s="33"/>
+      <c r="E417" s="36"/>
+      <c r="F417" s="33"/>
+      <c r="G417" s="36"/>
+      <c r="H417" s="36"/>
+      <c r="I417" s="33"/>
+      <c r="J417" s="33"/>
+      <c r="K417" s="33"/>
+      <c r="L417" s="33"/>
+      <c r="M417" s="33"/>
+      <c r="N417" s="37">
+        <v>2.61</v>
+      </c>
+      <c r="O417" s="33"/>
+      <c r="P417" s="33"/>
+      <c r="Q417" s="33"/>
+      <c r="R417" s="33"/>
+      <c r="S417" s="33"/>
+      <c r="T417" s="32">
+        <v>130</v>
+      </c>
+      <c r="U417" s="32">
+        <v>181.93</v>
+      </c>
+      <c r="V417" s="32">
+        <v>120.9</v>
+      </c>
+      <c r="W417" s="33"/>
+      <c r="X417" s="33"/>
+      <c r="Y417" s="33"/>
+      <c r="Z417" s="33"/>
+      <c r="AA417" s="33"/>
+      <c r="AB417" s="33">
+        <v>429.55122438780614</v>
+      </c>
+    </row>
+    <row r="418" spans="1:28">
+      <c r="A418" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B418" s="34">
+        <v>42643</v>
+      </c>
+      <c r="C418" s="35">
+        <v>104</v>
+      </c>
+      <c r="D418" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E418" s="36">
+        <v>10</v>
+      </c>
+      <c r="F418" s="33"/>
+      <c r="G418" s="36">
+        <v>52</v>
+      </c>
+      <c r="H418" s="36">
+        <v>104</v>
+      </c>
+      <c r="I418" s="33"/>
+      <c r="J418" s="33"/>
+      <c r="K418" s="33"/>
+      <c r="L418" s="33"/>
+      <c r="M418" s="33"/>
+      <c r="N418" s="37">
+        <v>2.06</v>
+      </c>
+      <c r="O418" s="33"/>
+      <c r="P418" s="33"/>
+      <c r="Q418" s="33"/>
+      <c r="R418" s="33"/>
+      <c r="S418" s="33"/>
+      <c r="T418" s="32">
+        <v>96.27</v>
+      </c>
+      <c r="U418" s="32">
+        <v>174.69</v>
+      </c>
+      <c r="V418" s="32">
+        <v>177.83</v>
+      </c>
+      <c r="W418" s="33"/>
+      <c r="X418" s="33"/>
+      <c r="Y418" s="33"/>
+      <c r="Z418" s="33">
+        <v>112.20489755122438</v>
+      </c>
+      <c r="AA418" s="33"/>
+      <c r="AB418" s="33">
+        <v>433.35532233883055</v>
+      </c>
+    </row>
+    <row r="419" spans="1:28">
+      <c r="A419" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B419" s="38">
+        <v>41463</v>
+      </c>
+      <c r="C419" s="39">
+        <v>25</v>
+      </c>
+      <c r="D419" s="32"/>
+      <c r="E419" s="40"/>
+      <c r="F419" s="32"/>
+      <c r="G419" s="41"/>
+      <c r="H419" s="42"/>
+      <c r="I419" s="32"/>
+      <c r="J419" s="32"/>
+      <c r="K419" s="32"/>
+      <c r="L419" s="32"/>
+      <c r="M419" s="32"/>
+      <c r="N419" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="O419" s="32"/>
+      <c r="P419" s="32"/>
+      <c r="Q419" s="32"/>
+      <c r="R419" s="32"/>
+      <c r="S419" s="32"/>
+      <c r="T419" s="32"/>
+      <c r="U419" s="32"/>
+      <c r="V419" s="32"/>
+      <c r="W419" s="32"/>
+      <c r="X419" s="32"/>
+      <c r="Y419" s="32"/>
+      <c r="Z419" s="32"/>
+      <c r="AA419" s="32"/>
+      <c r="AB419" s="32"/>
+    </row>
+    <row r="420" spans="1:28">
+      <c r="A420" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B420" s="38">
+        <v>41476</v>
+      </c>
+      <c r="C420" s="39">
+        <v>38</v>
+      </c>
+      <c r="D420" s="32"/>
+      <c r="E420" s="40"/>
+      <c r="F420" s="32"/>
+      <c r="G420" s="41"/>
+      <c r="H420" s="42"/>
+      <c r="I420" s="32"/>
+      <c r="J420" s="32"/>
+      <c r="K420" s="32"/>
+      <c r="L420" s="32"/>
+      <c r="M420" s="32"/>
+      <c r="N420" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="O420" s="32"/>
+      <c r="P420" s="32"/>
+      <c r="Q420" s="32"/>
+      <c r="R420" s="32"/>
+      <c r="S420" s="32"/>
+      <c r="T420" s="32"/>
+      <c r="U420" s="32"/>
+      <c r="V420" s="32"/>
+      <c r="W420" s="32"/>
+      <c r="X420" s="32"/>
+      <c r="Y420" s="32"/>
+      <c r="Z420" s="32"/>
+      <c r="AA420" s="32"/>
+      <c r="AB420" s="32"/>
+    </row>
+    <row r="421" spans="1:28">
+      <c r="A421" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B421" s="38">
+        <v>41478</v>
+      </c>
+      <c r="C421" s="39">
+        <v>40</v>
+      </c>
+      <c r="D421" s="32"/>
+      <c r="E421" s="40"/>
+      <c r="F421" s="32"/>
+      <c r="G421" s="41"/>
+      <c r="H421" s="41"/>
+      <c r="I421" s="32"/>
+      <c r="J421" s="32"/>
+      <c r="K421" s="32"/>
+      <c r="L421" s="32"/>
+      <c r="M421" s="32"/>
+      <c r="N421" s="41"/>
+      <c r="O421" s="32"/>
+      <c r="P421" s="32"/>
+      <c r="Q421" s="32"/>
+      <c r="R421" s="32"/>
+      <c r="S421" s="32"/>
+      <c r="T421" s="32"/>
+      <c r="U421" s="32"/>
+      <c r="V421" s="32"/>
+      <c r="W421" s="32"/>
+      <c r="X421" s="32"/>
+      <c r="Y421" s="32"/>
+      <c r="Z421" s="32"/>
+      <c r="AA421" s="32"/>
+      <c r="AB421" s="32"/>
+    </row>
+    <row r="422" spans="1:28">
+      <c r="A422" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B422" s="38">
+        <v>41481</v>
+      </c>
+      <c r="C422" s="39">
+        <v>43</v>
+      </c>
+      <c r="D422" s="32"/>
+      <c r="E422" s="40">
+        <v>4</v>
+      </c>
+      <c r="F422" s="32"/>
+      <c r="G422" s="41"/>
+      <c r="H422" s="41"/>
+      <c r="I422" s="32"/>
+      <c r="J422" s="32"/>
+      <c r="K422" s="32"/>
+      <c r="L422" s="32"/>
+      <c r="M422" s="32"/>
+      <c r="N422" s="41"/>
+      <c r="O422" s="32"/>
+      <c r="P422" s="32"/>
+      <c r="Q422" s="32"/>
+      <c r="R422" s="32"/>
+      <c r="S422" s="32"/>
+      <c r="T422" s="32"/>
+      <c r="U422" s="32"/>
+      <c r="V422" s="32"/>
+      <c r="W422" s="32"/>
+      <c r="X422" s="32"/>
+      <c r="Y422" s="32"/>
+      <c r="Z422" s="32"/>
+      <c r="AA422" s="32"/>
+      <c r="AB422" s="32"/>
+    </row>
+    <row r="423" spans="1:28">
+      <c r="A423" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B423" s="38">
+        <v>41488</v>
+      </c>
+      <c r="C423" s="39">
+        <v>50</v>
+      </c>
+      <c r="D423" s="32"/>
+      <c r="E423" s="32"/>
+      <c r="F423" s="32"/>
+      <c r="G423" s="41"/>
+      <c r="H423" s="41"/>
+      <c r="I423" s="32"/>
+      <c r="J423" s="32"/>
+      <c r="K423" s="32"/>
+      <c r="L423" s="32"/>
+      <c r="M423" s="32"/>
+      <c r="N423" s="41">
+        <v>3.93</v>
+      </c>
+      <c r="O423" s="32"/>
+      <c r="P423" s="32"/>
+      <c r="Q423" s="32"/>
+      <c r="R423" s="32"/>
+      <c r="S423" s="32"/>
+      <c r="T423" s="32"/>
+      <c r="U423" s="32"/>
+      <c r="V423" s="32"/>
+      <c r="W423" s="32"/>
+      <c r="X423" s="32"/>
+      <c r="Y423" s="32"/>
+      <c r="Z423" s="32"/>
+      <c r="AA423" s="32"/>
+      <c r="AB423" s="32"/>
+    </row>
+    <row r="424" spans="1:28">
+      <c r="A424" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B424" s="38">
+        <v>41493</v>
+      </c>
+      <c r="C424" s="39">
+        <v>55</v>
+      </c>
+      <c r="D424" s="32"/>
+      <c r="E424" s="40"/>
+      <c r="F424" s="32"/>
+      <c r="G424" s="41"/>
+      <c r="H424" s="41"/>
+      <c r="I424" s="32"/>
+      <c r="J424" s="32"/>
+      <c r="K424" s="32"/>
+      <c r="L424" s="32"/>
+      <c r="M424" s="32"/>
+      <c r="N424" s="41"/>
+      <c r="O424" s="32"/>
+      <c r="P424" s="32"/>
+      <c r="Q424" s="32"/>
+      <c r="R424" s="32"/>
+      <c r="S424" s="32"/>
+      <c r="T424" s="32"/>
+      <c r="U424" s="32"/>
+      <c r="V424" s="32"/>
+      <c r="W424" s="32"/>
+      <c r="X424" s="32"/>
+      <c r="Y424" s="32"/>
+      <c r="Z424" s="32"/>
+      <c r="AA424" s="32"/>
+      <c r="AB424" s="32"/>
+    </row>
+    <row r="425" spans="1:28">
+      <c r="A425" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B425" s="38">
+        <v>41502</v>
+      </c>
+      <c r="C425" s="39">
+        <v>64</v>
+      </c>
+      <c r="D425" s="32"/>
+      <c r="E425" s="40"/>
+      <c r="F425" s="32"/>
+      <c r="G425" s="41"/>
+      <c r="H425" s="41"/>
+      <c r="I425" s="32"/>
+      <c r="J425" s="32"/>
+      <c r="K425" s="32"/>
+      <c r="L425" s="32"/>
+      <c r="M425" s="32"/>
+      <c r="N425" s="41">
+        <v>5.13</v>
+      </c>
+      <c r="O425" s="32"/>
+      <c r="P425" s="32"/>
+      <c r="Q425" s="32"/>
+      <c r="R425" s="32"/>
+      <c r="S425" s="32"/>
+      <c r="T425" s="32"/>
+      <c r="U425" s="32"/>
+      <c r="V425" s="32"/>
+      <c r="W425" s="32"/>
+      <c r="X425" s="32"/>
+      <c r="Y425" s="32"/>
+      <c r="Z425" s="32"/>
+      <c r="AA425" s="32"/>
+      <c r="AB425" s="32"/>
+    </row>
+    <row r="426" spans="1:28">
+      <c r="A426" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B426" s="38">
+        <v>41505</v>
+      </c>
+      <c r="C426" s="39">
+        <v>67</v>
+      </c>
+      <c r="D426" s="32"/>
+      <c r="E426" s="40"/>
+      <c r="F426" s="32"/>
+      <c r="G426" s="41"/>
+      <c r="H426" s="41"/>
+      <c r="I426" s="32"/>
+      <c r="J426" s="32"/>
+      <c r="K426" s="32"/>
+      <c r="L426" s="32"/>
+      <c r="M426" s="32"/>
+      <c r="N426" s="41"/>
+      <c r="O426" s="32"/>
+      <c r="P426" s="32"/>
+      <c r="Q426" s="32"/>
+      <c r="R426" s="32"/>
+      <c r="S426" s="32"/>
+      <c r="T426" s="32"/>
+      <c r="U426" s="32"/>
+      <c r="V426" s="32"/>
+      <c r="W426" s="32"/>
+      <c r="X426" s="32"/>
+      <c r="Y426" s="32"/>
+      <c r="Z426" s="32"/>
+      <c r="AA426" s="32"/>
+      <c r="AB426" s="32"/>
+    </row>
+    <row r="427" spans="1:28">
+      <c r="A427" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B427" s="38">
+        <v>41517</v>
+      </c>
+      <c r="C427" s="39">
+        <v>79</v>
+      </c>
+      <c r="D427" s="32"/>
+      <c r="E427" s="40"/>
+      <c r="F427" s="32"/>
+      <c r="G427" s="41"/>
+      <c r="H427" s="41"/>
+      <c r="I427" s="32"/>
+      <c r="J427" s="32"/>
+      <c r="K427" s="32"/>
+      <c r="L427" s="32"/>
+      <c r="M427" s="32"/>
+      <c r="N427" s="41">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O427" s="32"/>
+      <c r="P427" s="32"/>
+      <c r="Q427" s="32"/>
+      <c r="R427" s="32"/>
+      <c r="S427" s="32"/>
+      <c r="T427" s="32"/>
+      <c r="U427" s="32"/>
+      <c r="V427" s="32"/>
+      <c r="W427" s="32"/>
+      <c r="X427" s="32"/>
+      <c r="Y427" s="32"/>
+      <c r="Z427" s="32"/>
+      <c r="AA427" s="32"/>
+      <c r="AB427" s="32"/>
+    </row>
+    <row r="428" spans="1:28">
+      <c r="A428" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B428" s="38">
+        <v>41522</v>
+      </c>
+      <c r="C428" s="39">
+        <v>84</v>
+      </c>
+      <c r="D428" s="32"/>
+      <c r="E428" s="40"/>
+      <c r="F428" s="32"/>
+      <c r="G428" s="41"/>
+      <c r="H428" s="41"/>
+      <c r="I428" s="32"/>
+      <c r="J428" s="32"/>
+      <c r="K428" s="32"/>
+      <c r="L428" s="32"/>
+      <c r="M428" s="32"/>
+      <c r="N428" s="41"/>
+      <c r="O428" s="32"/>
+      <c r="P428" s="32"/>
+      <c r="Q428" s="32"/>
+      <c r="R428" s="32"/>
+      <c r="S428" s="32"/>
+      <c r="T428" s="32"/>
+      <c r="U428" s="32"/>
+      <c r="V428" s="32"/>
+      <c r="W428" s="32"/>
+      <c r="X428" s="32"/>
+      <c r="Y428" s="32"/>
+      <c r="Z428" s="32"/>
+      <c r="AA428" s="32"/>
+      <c r="AB428" s="32"/>
+    </row>
+    <row r="429" spans="1:28">
+      <c r="A429" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B429" s="38">
+        <v>41533</v>
+      </c>
+      <c r="C429" s="39">
+        <v>95</v>
+      </c>
+      <c r="D429" s="32"/>
+      <c r="E429" s="40"/>
+      <c r="F429" s="32"/>
+      <c r="G429" s="41"/>
+      <c r="H429" s="41"/>
+      <c r="I429" s="32"/>
+      <c r="J429" s="32"/>
+      <c r="K429" s="32"/>
+      <c r="L429" s="32"/>
+      <c r="M429" s="32"/>
+      <c r="N429" s="41">
+        <v>4.51</v>
+      </c>
+      <c r="O429" s="32"/>
+      <c r="P429" s="32"/>
+      <c r="Q429" s="32"/>
+      <c r="R429" s="32"/>
+      <c r="S429" s="32"/>
+      <c r="T429" s="32"/>
+      <c r="U429" s="32"/>
+      <c r="V429" s="32"/>
+      <c r="W429" s="32"/>
+      <c r="X429" s="32"/>
+      <c r="Y429" s="32"/>
+      <c r="Z429" s="32"/>
+      <c r="AA429" s="32"/>
+      <c r="AB429" s="32"/>
+    </row>
+    <row r="430" spans="1:28">
+      <c r="A430" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B430" s="38">
+        <v>41543</v>
+      </c>
+      <c r="C430" s="39">
+        <v>105</v>
+      </c>
+      <c r="D430" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E430" s="40">
+        <v>10</v>
+      </c>
+      <c r="F430" s="32"/>
+      <c r="G430" s="41">
+        <v>40</v>
+      </c>
+      <c r="H430" s="41">
+        <v>105</v>
+      </c>
+      <c r="I430" s="32"/>
+      <c r="J430" s="32"/>
+      <c r="K430" s="32"/>
+      <c r="L430" s="32"/>
+      <c r="M430" s="32"/>
+      <c r="N430" s="41"/>
+      <c r="O430" s="32"/>
+      <c r="P430" s="32"/>
+      <c r="Q430" s="32"/>
+      <c r="R430" s="32"/>
+      <c r="S430" s="32"/>
+      <c r="T430" s="32"/>
+      <c r="U430" s="32"/>
+      <c r="V430" s="32"/>
+      <c r="W430" s="32"/>
+      <c r="X430" s="32"/>
+      <c r="Y430" s="32"/>
+      <c r="Z430" s="32">
+        <v>303.02848575712142</v>
+      </c>
+      <c r="AA430" s="32"/>
+      <c r="AB430" s="32">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="431" spans="1:28">
+      <c r="A431" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B431" s="38">
+        <v>41826</v>
+      </c>
+      <c r="C431" s="39">
+        <v>26</v>
+      </c>
+      <c r="D431" s="32"/>
+      <c r="E431" s="40"/>
+      <c r="F431" s="32"/>
+      <c r="G431" s="41"/>
+      <c r="H431" s="41"/>
+      <c r="I431" s="32"/>
+      <c r="J431" s="32"/>
+      <c r="K431" s="32"/>
+      <c r="L431" s="32"/>
+      <c r="M431" s="32"/>
+      <c r="N431" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="O431" s="32"/>
+      <c r="P431" s="32"/>
+      <c r="Q431" s="32"/>
+      <c r="R431" s="32"/>
+      <c r="S431" s="32"/>
+      <c r="T431" s="32"/>
+      <c r="U431" s="32"/>
+      <c r="V431" s="32"/>
+      <c r="W431" s="32"/>
+      <c r="X431" s="32"/>
+      <c r="Y431" s="32"/>
+      <c r="Z431" s="32"/>
+      <c r="AA431" s="32"/>
+      <c r="AB431" s="32"/>
+    </row>
+    <row r="432" spans="1:28">
+      <c r="A432" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B432" s="38">
+        <v>41839</v>
+      </c>
+      <c r="C432" s="39">
+        <v>39</v>
+      </c>
+      <c r="D432" s="32"/>
+      <c r="E432" s="40"/>
+      <c r="F432" s="32"/>
+      <c r="G432" s="41"/>
+      <c r="H432" s="41"/>
+      <c r="I432" s="32"/>
+      <c r="J432" s="32"/>
+      <c r="K432" s="32"/>
+      <c r="L432" s="32"/>
+      <c r="M432" s="32"/>
+      <c r="N432" s="41">
+        <v>1.56</v>
+      </c>
+      <c r="O432" s="32"/>
+      <c r="P432" s="32"/>
+      <c r="Q432" s="32"/>
+      <c r="R432" s="32"/>
+      <c r="S432" s="32"/>
+      <c r="T432" s="32"/>
+      <c r="U432" s="32"/>
+      <c r="V432" s="32"/>
+      <c r="W432" s="32"/>
+      <c r="X432" s="32"/>
+      <c r="Y432" s="32"/>
+      <c r="Z432" s="32"/>
+      <c r="AA432" s="32"/>
+      <c r="AB432" s="32"/>
+    </row>
+    <row r="433" spans="1:28">
+      <c r="A433" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B433" s="38">
+        <v>41846</v>
+      </c>
+      <c r="C433" s="39">
+        <v>46</v>
+      </c>
+      <c r="D433" s="32"/>
+      <c r="E433" s="40">
+        <v>4</v>
+      </c>
+      <c r="F433" s="32"/>
+      <c r="G433" s="41"/>
+      <c r="H433" s="41"/>
+      <c r="I433" s="32"/>
+      <c r="J433" s="32"/>
+      <c r="K433" s="32"/>
+      <c r="L433" s="32"/>
+      <c r="M433" s="32"/>
+      <c r="N433" s="41"/>
+      <c r="O433" s="32"/>
+      <c r="P433" s="32"/>
+      <c r="Q433" s="32"/>
+      <c r="R433" s="32"/>
+      <c r="S433" s="32"/>
+      <c r="T433" s="32"/>
+      <c r="U433" s="32"/>
+      <c r="V433" s="32"/>
+      <c r="W433" s="32"/>
+      <c r="X433" s="32"/>
+      <c r="Y433" s="32"/>
+      <c r="Z433" s="32"/>
+      <c r="AA433" s="32"/>
+      <c r="AB433" s="32"/>
+    </row>
+    <row r="434" spans="1:28">
+      <c r="A434" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B434" s="38">
+        <v>41853</v>
+      </c>
+      <c r="C434" s="39">
+        <v>53</v>
+      </c>
+      <c r="D434" s="32"/>
+      <c r="E434" s="32"/>
+      <c r="F434" s="32"/>
+      <c r="G434" s="41"/>
+      <c r="H434" s="41"/>
+      <c r="I434" s="32"/>
+      <c r="J434" s="32"/>
+      <c r="K434" s="32"/>
+      <c r="L434" s="32"/>
+      <c r="M434" s="32"/>
+      <c r="N434" s="41">
+        <v>3.98</v>
+      </c>
+      <c r="O434" s="32"/>
+      <c r="P434" s="32"/>
+      <c r="Q434" s="32"/>
+      <c r="R434" s="32"/>
+      <c r="S434" s="32"/>
+      <c r="T434" s="32"/>
+      <c r="U434" s="32"/>
+      <c r="V434" s="32"/>
+      <c r="W434" s="32"/>
+      <c r="X434" s="32"/>
+      <c r="Y434" s="32"/>
+      <c r="Z434" s="32"/>
+      <c r="AA434" s="32"/>
+      <c r="AB434" s="32"/>
+    </row>
+    <row r="435" spans="1:28">
+      <c r="A435" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B435" s="38">
+        <v>41865</v>
+      </c>
+      <c r="C435" s="39">
+        <v>65</v>
+      </c>
+      <c r="D435" s="32"/>
+      <c r="E435" s="40"/>
+      <c r="F435" s="32"/>
+      <c r="G435" s="41"/>
+      <c r="H435" s="41"/>
+      <c r="I435" s="32"/>
+      <c r="J435" s="32"/>
+      <c r="K435" s="32"/>
+      <c r="L435" s="32"/>
+      <c r="M435" s="32"/>
+      <c r="N435" s="41">
+        <v>5.32</v>
+      </c>
+      <c r="O435" s="32"/>
+      <c r="P435" s="32"/>
+      <c r="Q435" s="32"/>
+      <c r="R435" s="32"/>
+      <c r="S435" s="32"/>
+      <c r="T435" s="32"/>
+      <c r="U435" s="32"/>
+      <c r="V435" s="32"/>
+      <c r="W435" s="32"/>
+      <c r="X435" s="32"/>
+      <c r="Y435" s="32"/>
+      <c r="Z435" s="32"/>
+      <c r="AA435" s="32"/>
+      <c r="AB435" s="32"/>
+    </row>
+    <row r="436" spans="1:28">
+      <c r="A436" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B436" s="38">
+        <v>41879</v>
+      </c>
+      <c r="C436" s="39">
+        <v>79</v>
+      </c>
+      <c r="D436" s="32"/>
+      <c r="E436" s="40"/>
+      <c r="F436" s="32"/>
+      <c r="G436" s="41"/>
+      <c r="H436" s="41"/>
+      <c r="I436" s="32"/>
+      <c r="J436" s="32"/>
+      <c r="K436" s="32"/>
+      <c r="L436" s="32"/>
+      <c r="M436" s="32"/>
+      <c r="N436" s="41">
+        <v>5.25</v>
+      </c>
+      <c r="O436" s="32"/>
+      <c r="P436" s="32"/>
+      <c r="Q436" s="32"/>
+      <c r="R436" s="32"/>
+      <c r="S436" s="32"/>
+      <c r="T436" s="32"/>
+      <c r="U436" s="32"/>
+      <c r="V436" s="32"/>
+      <c r="W436" s="32"/>
+      <c r="X436" s="32"/>
+      <c r="Y436" s="32"/>
+      <c r="Z436" s="32"/>
+      <c r="AA436" s="32"/>
+      <c r="AB436" s="32"/>
+    </row>
+    <row r="437" spans="1:28">
+      <c r="A437" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B437" s="38">
+        <v>41899</v>
+      </c>
+      <c r="C437" s="39">
+        <v>99</v>
+      </c>
+      <c r="D437" s="32"/>
+      <c r="E437" s="40"/>
+      <c r="F437" s="32"/>
+      <c r="G437" s="41"/>
+      <c r="H437" s="41"/>
+      <c r="I437" s="32"/>
+      <c r="J437" s="32"/>
+      <c r="K437" s="32"/>
+      <c r="L437" s="32"/>
+      <c r="M437" s="32"/>
+      <c r="N437" s="41">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="O437" s="32"/>
+      <c r="P437" s="32"/>
+      <c r="Q437" s="32"/>
+      <c r="R437" s="32"/>
+      <c r="S437" s="32"/>
+      <c r="T437" s="32"/>
+      <c r="U437" s="32"/>
+      <c r="V437" s="32"/>
+      <c r="W437" s="32"/>
+      <c r="X437" s="32"/>
+      <c r="Y437" s="32"/>
+      <c r="Z437" s="32"/>
+      <c r="AA437" s="32"/>
+      <c r="AB437" s="32"/>
+    </row>
+    <row r="438" spans="1:28">
+      <c r="A438" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B438" s="38">
+        <v>41910</v>
+      </c>
+      <c r="C438" s="39">
+        <v>110</v>
+      </c>
+      <c r="D438" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E438" s="40">
+        <v>10</v>
+      </c>
+      <c r="F438" s="32"/>
+      <c r="G438" s="41">
+        <v>50</v>
+      </c>
+      <c r="H438" s="41">
+        <v>110</v>
+      </c>
+      <c r="I438" s="32"/>
+      <c r="J438" s="32"/>
+      <c r="K438" s="32"/>
+      <c r="L438" s="32"/>
+      <c r="M438" s="32"/>
+      <c r="N438" s="41"/>
+      <c r="O438" s="32"/>
+      <c r="P438" s="32"/>
+      <c r="Q438" s="32"/>
+      <c r="R438" s="32"/>
+      <c r="S438" s="32"/>
+      <c r="T438" s="32"/>
+      <c r="U438" s="32"/>
+      <c r="V438" s="32"/>
+      <c r="W438" s="32"/>
+      <c r="X438" s="32"/>
+      <c r="Y438" s="32"/>
+      <c r="Z438" s="32">
+        <v>314.09095452273868</v>
+      </c>
+      <c r="AA438" s="32"/>
+      <c r="AB438" s="32">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="439" spans="1:28">
+      <c r="A439" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B439" s="38">
+        <v>42208</v>
+      </c>
+      <c r="C439" s="39">
+        <v>39</v>
+      </c>
+      <c r="D439" s="32"/>
+      <c r="E439" s="40">
+        <v>4</v>
+      </c>
+      <c r="F439" s="32"/>
+      <c r="G439" s="41"/>
+      <c r="H439" s="41"/>
+      <c r="I439" s="32"/>
+      <c r="J439" s="32"/>
+      <c r="K439" s="32"/>
+      <c r="L439" s="32"/>
+      <c r="M439" s="32"/>
+      <c r="N439" s="41"/>
+      <c r="O439" s="32"/>
+      <c r="P439" s="32"/>
+      <c r="Q439" s="32"/>
+      <c r="R439" s="32"/>
+      <c r="S439" s="32"/>
+      <c r="T439" s="32"/>
+      <c r="U439" s="32"/>
+      <c r="V439" s="32"/>
+      <c r="W439" s="32"/>
+      <c r="X439" s="32"/>
+      <c r="Y439" s="32"/>
+      <c r="Z439" s="32"/>
+      <c r="AA439" s="32"/>
+      <c r="AB439" s="32">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="440" spans="1:28">
+      <c r="A440" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B440" s="38">
+        <v>42226</v>
+      </c>
+      <c r="C440" s="39">
+        <v>57</v>
+      </c>
+      <c r="D440" s="32"/>
+      <c r="E440" s="40"/>
+      <c r="F440" s="32"/>
+      <c r="G440" s="41"/>
+      <c r="H440" s="41"/>
+      <c r="I440" s="32"/>
+      <c r="J440" s="32"/>
+      <c r="K440" s="32"/>
+      <c r="L440" s="32"/>
+      <c r="M440" s="32"/>
+      <c r="N440" s="41">
+        <v>5</v>
+      </c>
+      <c r="O440" s="32"/>
+      <c r="P440" s="32"/>
+      <c r="Q440" s="32"/>
+      <c r="R440" s="32"/>
+      <c r="S440" s="32"/>
+      <c r="T440" s="32"/>
+      <c r="U440" s="32"/>
+      <c r="V440" s="32"/>
+      <c r="W440" s="32"/>
+      <c r="X440" s="32"/>
+      <c r="Y440" s="32"/>
+      <c r="Z440" s="32"/>
+      <c r="AA440" s="32"/>
+      <c r="AB440" s="32">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="441" spans="1:28">
+      <c r="A441" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B441" s="38">
+        <v>42241</v>
+      </c>
+      <c r="C441" s="39">
+        <v>72</v>
+      </c>
+      <c r="D441" s="32"/>
+      <c r="E441" s="40"/>
+      <c r="F441" s="32"/>
+      <c r="G441" s="41"/>
+      <c r="H441" s="41"/>
+      <c r="I441" s="32"/>
+      <c r="J441" s="32"/>
+      <c r="K441" s="32"/>
+      <c r="L441" s="32"/>
+      <c r="M441" s="32"/>
+      <c r="N441" s="41"/>
+      <c r="O441" s="32"/>
+      <c r="P441" s="32"/>
+      <c r="Q441" s="32"/>
+      <c r="R441" s="32"/>
+      <c r="S441" s="32"/>
+      <c r="T441" s="32"/>
+      <c r="U441" s="32"/>
+      <c r="V441" s="32"/>
+      <c r="W441" s="32"/>
+      <c r="X441" s="32"/>
+      <c r="Y441" s="32"/>
+      <c r="Z441" s="32"/>
+      <c r="AA441" s="32"/>
+      <c r="AB441" s="32">
+        <v>545.99999999999989</v>
+      </c>
+    </row>
+    <row r="442" spans="1:28">
+      <c r="A442" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B442" s="38">
+        <v>42257</v>
+      </c>
+      <c r="C442" s="39">
+        <v>88</v>
+      </c>
+      <c r="D442" s="32"/>
+      <c r="E442" s="40"/>
+      <c r="F442" s="32"/>
+      <c r="G442" s="41"/>
+      <c r="H442" s="41"/>
+      <c r="I442" s="32"/>
+      <c r="J442" s="32"/>
+      <c r="K442" s="32"/>
+      <c r="L442" s="32"/>
+      <c r="M442" s="32"/>
+      <c r="N442" s="41"/>
+      <c r="O442" s="32"/>
+      <c r="P442" s="32"/>
+      <c r="Q442" s="32"/>
+      <c r="R442" s="32"/>
+      <c r="S442" s="32"/>
+      <c r="T442" s="32"/>
+      <c r="U442" s="32"/>
+      <c r="V442" s="32"/>
+      <c r="W442" s="32"/>
+      <c r="X442" s="32"/>
+      <c r="Y442" s="32"/>
+      <c r="Z442" s="32"/>
+      <c r="AA442" s="32"/>
+      <c r="AB442" s="32">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="443" spans="1:28">
+      <c r="A443" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B443" s="38">
+        <v>42273</v>
+      </c>
+      <c r="C443" s="39">
+        <v>104</v>
+      </c>
+      <c r="D443" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E443" s="40">
+        <v>10</v>
+      </c>
+      <c r="F443" s="32"/>
+      <c r="G443" s="41">
+        <v>39</v>
+      </c>
+      <c r="H443" s="41">
+        <v>104</v>
+      </c>
+      <c r="I443" s="32"/>
+      <c r="J443" s="32"/>
+      <c r="K443" s="32"/>
+      <c r="L443" s="32"/>
+      <c r="M443" s="32"/>
+      <c r="N443" s="41"/>
+      <c r="O443" s="32"/>
+      <c r="P443" s="32"/>
+      <c r="Q443" s="32"/>
+      <c r="R443" s="32"/>
+      <c r="S443" s="32"/>
+      <c r="T443" s="32"/>
+      <c r="U443" s="32"/>
+      <c r="V443" s="32"/>
+      <c r="W443" s="32"/>
+      <c r="X443" s="32"/>
+      <c r="Y443" s="32"/>
+      <c r="Z443" s="32">
+        <v>330.64855602198901</v>
+      </c>
+      <c r="AA443" s="32"/>
+      <c r="AB443" s="32">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -13631,7 +18274,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -15092,10 +19735,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
@@ -17835,18 +22478,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5234375" customWidth="1"/>
+    <col min="4" max="4" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.89453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18520,84 +23163,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.68359375" customWidth="1"/>
+    <col min="14" max="14" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.3125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.41796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1015625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="21.88671875" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.89453125" customWidth="1"/>
+    <col min="28" max="28" width="20.5234375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.3125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.3125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.89453125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1015625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.5234375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.68359375" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.68359375" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="18" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:87">
